--- a/Results/2020/Primaries/Democrats.xlsx
+++ b/Results/2020/Primaries/Democrats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF6161C-D43E-434F-B685-ED0843427B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFFA20-A20E-4576-A4FC-FD4C02EF5675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="national" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -593,6 +593,84 @@
   </si>
   <si>
     <t>delg</t>
+  </si>
+  <si>
+    <t>delg6</t>
+  </si>
+  <si>
+    <t>klobuchar</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>total_write_ins</t>
+  </si>
+  <si>
+    <t>ellingerm</t>
+  </si>
+  <si>
+    <t>sestakj</t>
+  </si>
+  <si>
+    <t>bookerc</t>
+  </si>
+  <si>
+    <t>harrisk</t>
+  </si>
+  <si>
+    <t>krichevskyr</t>
+  </si>
+  <si>
+    <t>koost</t>
+  </si>
+  <si>
+    <t>krausl</t>
+  </si>
+  <si>
+    <t>boydm</t>
+  </si>
+  <si>
+    <t>bullocks</t>
+  </si>
+  <si>
+    <t>burkes</t>
+  </si>
+  <si>
+    <t>castroj</t>
+  </si>
+  <si>
+    <t>hewesh</t>
+  </si>
+  <si>
+    <t>williamsonm</t>
+  </si>
+  <si>
+    <t>dunlapj</t>
+  </si>
+  <si>
+    <t>gleibermanb</t>
+  </si>
+  <si>
+    <t>sloans</t>
+  </si>
+  <si>
+    <t>torgesent</t>
+  </si>
+  <si>
+    <t>wellsr</t>
+  </si>
+  <si>
+    <t>de_la_fuente_iiir</t>
+  </si>
+  <si>
+    <t>greensteinm</t>
+  </si>
+  <si>
+    <t>morozr</t>
+  </si>
+  <si>
+    <t>thistled</t>
   </si>
 </sst>
 </file>
@@ -1497,9 +1575,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B1E82-8091-41B0-BD60-8CA737A0639A}">
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1508,8 +1586,7 @@
   <cols>
     <col min="1" max="3" width="10.69921875" style="8"/>
     <col min="4" max="4" width="10.69921875" style="9"/>
-    <col min="5" max="5" width="10.69921875" style="6"/>
-    <col min="6" max="6" width="10.69921875" style="9"/>
+    <col min="5" max="6" width="10.69921875" style="6"/>
     <col min="7" max="7" width="10.69921875" style="5"/>
     <col min="8" max="8" width="10.69921875" style="6"/>
     <col min="9" max="9" width="10.69921875" style="2"/>
@@ -1532,7 +1609,7 @@
     <col min="27" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1625,7 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1611,8 +1688,20 @@
       <c r="Z1" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1684,20 +1773,33 @@
         <v>6</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="X2" s="5">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="Y2" s="2">
         <f>X2/E2</f>
-        <v>0.13847583643122677</v>
+        <v>0.12267657992565056</v>
       </c>
       <c r="Z2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>AB2/E2</f>
+        <v>1.5799256505576207E-2</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
@@ -1710,8 +1812,92 @@
       <c r="D3" s="9">
         <v>43872</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <v>296622</v>
+      </c>
+      <c r="F3" s="6">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6">
+        <v>76324</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/E3</f>
+        <v>0.25731065126659519</v>
+      </c>
+      <c r="J3" s="6">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="6">
+        <v>72457</v>
+      </c>
+      <c r="M3" s="2">
+        <f>L3/E3</f>
+        <v>0.24427385696273371</v>
+      </c>
+      <c r="N3" s="6">
+        <v>9</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" s="6">
+        <v>58796</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>P3/E3</f>
+        <v>0.19821860819494172</v>
+      </c>
+      <c r="R3" s="6">
+        <v>6</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="6">
+        <v>27387</v>
+      </c>
+      <c r="U3" s="2">
+        <f>T3/E3</f>
+        <v>9.2329631652406097E-2</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="5">
+        <v>24921</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>X3/E3</f>
+        <v>8.4016020389586749E-2</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>36737</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>AB3/E3</f>
+        <v>0.12385123153373653</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>75</v>
       </c>
@@ -1725,7 +1911,7 @@
         <v>43883</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>77</v>
       </c>
@@ -1739,7 +1925,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>79</v>
       </c>
@@ -1753,7 +1939,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>81</v>
       </c>
@@ -1767,7 +1953,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>83</v>
       </c>
@@ -1781,7 +1967,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
@@ -1795,7 +1981,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>87</v>
       </c>
@@ -1809,7 +1995,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>89</v>
       </c>
@@ -1823,7 +2009,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>91</v>
       </c>
@@ -1837,7 +2023,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>93</v>
       </c>
@@ -1851,7 +2037,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>95</v>
       </c>
@@ -1865,7 +2051,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>97</v>
       </c>
@@ -1879,7 +2065,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>99</v>
       </c>
@@ -2494,7 +2680,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2587,11 +2773,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F35F74-FDAD-46CB-85ED-D8ECAAB7193A}">
-  <dimension ref="A1:AS106"/>
+  <dimension ref="A1:CZ117"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView rightToLeft="1" topLeftCell="CJ1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S107" sqref="S107:CZ107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11775,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>19179</v>
       </c>
@@ -11870,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>19181</v>
       </c>
@@ -11965,7 +12151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>19183</v>
       </c>
@@ -12060,7 +12246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>19185</v>
       </c>
@@ -12155,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>19187</v>
       </c>
@@ -12250,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>19189</v>
       </c>
@@ -12345,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>19191</v>
       </c>
@@ -12440,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>19193</v>
       </c>
@@ -12535,7 +12721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>19195</v>
       </c>
@@ -12630,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>19197</v>
       </c>
@@ -12723,6 +12909,2371 @@
       </c>
       <c r="AR106" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="6">
+        <v>296622</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="6">
+        <v>76324</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="6">
+        <v>72457</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" s="6">
+        <v>58796</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" s="6">
+        <v>27387</v>
+      </c>
+      <c r="P107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>24921</v>
+      </c>
+      <c r="S107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T107" s="5">
+        <v>10727</v>
+      </c>
+      <c r="V107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W107" s="5">
+        <v>9655</v>
+      </c>
+      <c r="Y107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z107" s="5">
+        <v>8315</v>
+      </c>
+      <c r="AB107" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC107" s="5">
+        <v>4449</v>
+      </c>
+      <c r="AE107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF107" s="5">
+        <v>1266</v>
+      </c>
+      <c r="AH107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI107" s="5">
+        <v>963</v>
+      </c>
+      <c r="AK107" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL107" s="5">
+        <v>155</v>
+      </c>
+      <c r="AN107" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO107" s="5">
+        <v>143</v>
+      </c>
+      <c r="AQ107" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR107" s="5">
+        <v>104</v>
+      </c>
+      <c r="AT107" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU107" s="5">
+        <v>95</v>
+      </c>
+      <c r="AW107" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX107" s="5">
+        <v>85</v>
+      </c>
+      <c r="AZ107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA107" s="5">
+        <v>82</v>
+      </c>
+      <c r="BC107" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD107" s="5">
+        <v>81</v>
+      </c>
+      <c r="BF107" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG107" s="5">
+        <v>81</v>
+      </c>
+      <c r="BI107" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ107" s="5">
+        <v>70</v>
+      </c>
+      <c r="BL107" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM107" s="5">
+        <v>65</v>
+      </c>
+      <c r="BO107" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP107" s="5">
+        <v>63</v>
+      </c>
+      <c r="BR107" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS107" s="5">
+        <v>54</v>
+      </c>
+      <c r="BU107" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV107" s="5">
+        <v>53</v>
+      </c>
+      <c r="BX107" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY107" s="5">
+        <v>33</v>
+      </c>
+      <c r="CA107" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB107" s="5">
+        <v>32</v>
+      </c>
+      <c r="CD107" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE107" s="5">
+        <v>31</v>
+      </c>
+      <c r="CG107" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CH107" s="5">
+        <v>30</v>
+      </c>
+      <c r="CJ107" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CK107" s="5">
+        <v>29</v>
+      </c>
+      <c r="CM107" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CN107" s="5">
+        <v>23</v>
+      </c>
+      <c r="CP107" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ107" s="5">
+        <v>21</v>
+      </c>
+      <c r="CS107" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CT107" s="5">
+        <v>12</v>
+      </c>
+      <c r="CV107" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CW107" s="5">
+        <v>11</v>
+      </c>
+      <c r="CY107" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CZ107" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>33001</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="6">
+        <v>11459</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2688</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="6">
+        <v>2812</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" s="6">
+        <v>2438</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N108" s="6">
+        <v>1126</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>840</v>
+      </c>
+      <c r="S108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T108" s="5">
+        <v>479</v>
+      </c>
+      <c r="V108" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W108" s="5">
+        <v>410</v>
+      </c>
+      <c r="Y108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z108" s="5">
+        <v>257</v>
+      </c>
+      <c r="AB108" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC108" s="5">
+        <v>230</v>
+      </c>
+      <c r="AE108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF108" s="5">
+        <v>48</v>
+      </c>
+      <c r="AH108" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI108" s="5">
+        <v>38</v>
+      </c>
+      <c r="AK108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL108" s="5">
+        <v>35</v>
+      </c>
+      <c r="AN108" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO108" s="5">
+        <v>15</v>
+      </c>
+      <c r="AQ108" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR108" s="5">
+        <v>8</v>
+      </c>
+      <c r="AT108" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU108" s="5">
+        <v>6</v>
+      </c>
+      <c r="AW108" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX108" s="5">
+        <v>4</v>
+      </c>
+      <c r="AZ108" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA108" s="5">
+        <v>3</v>
+      </c>
+      <c r="BC108" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD108" s="5">
+        <v>3</v>
+      </c>
+      <c r="BF108" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG108" s="5">
+        <v>2</v>
+      </c>
+      <c r="BI108" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ108" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL108" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM108" s="5">
+        <v>2</v>
+      </c>
+      <c r="BO108" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP108" s="5">
+        <v>2</v>
+      </c>
+      <c r="BR108" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS108" s="5">
+        <v>2</v>
+      </c>
+      <c r="BU108" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BV108" s="5">
+        <v>2</v>
+      </c>
+      <c r="BX108" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BY108" s="5">
+        <v>2</v>
+      </c>
+      <c r="CA108" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CB108" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD108" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE108" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG108" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH108" s="5">
+        <v>1</v>
+      </c>
+      <c r="CJ108" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK108" s="5">
+        <v>1</v>
+      </c>
+      <c r="CM108" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CN108" s="5">
+        <v>1</v>
+      </c>
+      <c r="CP108" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CQ108" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS108" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CT108" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV108" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CW108" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY108" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CZ108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>33003</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="6">
+        <v>11136</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="6">
+        <v>2605</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="6">
+        <v>2813</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" s="6">
+        <v>2464</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N109" s="6">
+        <v>1020</v>
+      </c>
+      <c r="P109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>903</v>
+      </c>
+      <c r="S109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T109" s="5">
+        <v>403</v>
+      </c>
+      <c r="V109" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W109" s="5">
+        <v>323</v>
+      </c>
+      <c r="Y109" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z109" s="5">
+        <v>252</v>
+      </c>
+      <c r="AB109" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC109" s="5">
+        <v>229</v>
+      </c>
+      <c r="AE109" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF109" s="5">
+        <v>43</v>
+      </c>
+      <c r="AH109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI109" s="5">
+        <v>31</v>
+      </c>
+      <c r="AK109" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL109" s="5">
+        <v>13</v>
+      </c>
+      <c r="AN109" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO109" s="5">
+        <v>8</v>
+      </c>
+      <c r="AQ109" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR109" s="5">
+        <v>6</v>
+      </c>
+      <c r="AT109" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU109" s="5">
+        <v>5</v>
+      </c>
+      <c r="AW109" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX109" s="5">
+        <v>3</v>
+      </c>
+      <c r="AZ109" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA109" s="5">
+        <v>2</v>
+      </c>
+      <c r="BC109" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD109" s="5">
+        <v>2</v>
+      </c>
+      <c r="BF109" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG109" s="5">
+        <v>2</v>
+      </c>
+      <c r="BI109" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ109" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL109" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BM109" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO109" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP109" s="5">
+        <v>1</v>
+      </c>
+      <c r="BR109" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS109" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU109" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV109" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX109" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BY109" s="5">
+        <v>1</v>
+      </c>
+      <c r="CA109" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CB109" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD109" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE109" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG109" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ109" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CK109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM109" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP109" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CQ109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS109" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CT109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV109" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CW109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY109" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CZ109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>33005</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="6">
+        <v>19012</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="6">
+        <v>5973</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="6">
+        <v>4053</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" s="6">
+        <v>3616</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N110" s="6">
+        <v>1816</v>
+      </c>
+      <c r="P110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>1264</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T110" s="5">
+        <v>651</v>
+      </c>
+      <c r="V110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W110" s="5">
+        <v>597</v>
+      </c>
+      <c r="Y110" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z110" s="5">
+        <v>582</v>
+      </c>
+      <c r="AB110" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC110" s="5">
+        <v>270</v>
+      </c>
+      <c r="AE110" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF110" s="5">
+        <v>54</v>
+      </c>
+      <c r="AH110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI110" s="5">
+        <v>43</v>
+      </c>
+      <c r="AK110" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL110" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN110" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO110" s="5">
+        <v>9</v>
+      </c>
+      <c r="AQ110" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR110" s="5">
+        <v>9</v>
+      </c>
+      <c r="AT110" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU110" s="5">
+        <v>9</v>
+      </c>
+      <c r="AW110" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX110" s="5">
+        <v>7</v>
+      </c>
+      <c r="AZ110" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA110" s="5">
+        <v>7</v>
+      </c>
+      <c r="BC110" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD110" s="5">
+        <v>6</v>
+      </c>
+      <c r="BF110" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG110" s="5">
+        <v>6</v>
+      </c>
+      <c r="BI110" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ110" s="5">
+        <v>5</v>
+      </c>
+      <c r="BL110" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BM110" s="5">
+        <v>4</v>
+      </c>
+      <c r="BO110" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP110" s="5">
+        <v>4</v>
+      </c>
+      <c r="BR110" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS110" s="5">
+        <v>4</v>
+      </c>
+      <c r="BU110" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV110" s="5">
+        <v>4</v>
+      </c>
+      <c r="BX110" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BY110" s="5">
+        <v>3</v>
+      </c>
+      <c r="CA110" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB110" s="5">
+        <v>2</v>
+      </c>
+      <c r="CD110" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE110" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG110" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CH110" s="5">
+        <v>1</v>
+      </c>
+      <c r="CJ110" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CK110" s="5">
+        <v>1</v>
+      </c>
+      <c r="CM110" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CN110" s="5">
+        <v>1</v>
+      </c>
+      <c r="CP110" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ110" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS110" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CT110" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV110" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CW110" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY110" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CZ110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>33007</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="6">
+        <v>5354</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1561</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="6">
+        <v>1094</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" s="6">
+        <v>909</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N111" s="6">
+        <v>566</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>395</v>
+      </c>
+      <c r="S111" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T111" s="5">
+        <v>231</v>
+      </c>
+      <c r="V111" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W111" s="5">
+        <v>206</v>
+      </c>
+      <c r="Y111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z111" s="5">
+        <v>149</v>
+      </c>
+      <c r="AB111" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC111" s="5">
+        <v>145</v>
+      </c>
+      <c r="AE111" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF111" s="5">
+        <v>17</v>
+      </c>
+      <c r="AH111" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI111" s="5">
+        <v>15</v>
+      </c>
+      <c r="AK111" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL111" s="5">
+        <v>14</v>
+      </c>
+      <c r="AN111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO111" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ111" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR111" s="5">
+        <v>7</v>
+      </c>
+      <c r="AT111" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU111" s="5">
+        <v>6</v>
+      </c>
+      <c r="AW111" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX111" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ111" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA111" s="5">
+        <v>5</v>
+      </c>
+      <c r="BC111" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD111" s="5">
+        <v>4</v>
+      </c>
+      <c r="BF111" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG111" s="5">
+        <v>4</v>
+      </c>
+      <c r="BI111" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ111" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL111" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM111" s="5">
+        <v>3</v>
+      </c>
+      <c r="BO111" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP111" s="5">
+        <v>2</v>
+      </c>
+      <c r="BR111" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS111" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU111" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV111" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX111" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BY111" s="5">
+        <v>1</v>
+      </c>
+      <c r="CA111" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CB111" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD111" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE111" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG111" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH111" s="5">
+        <v>1</v>
+      </c>
+      <c r="CJ111" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CK111" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM111" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN111" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP111" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CQ111" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS111" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CT111" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV111" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CW111" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY111" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CZ111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>33009</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="6">
+        <v>24347</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="6">
+        <v>6598</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="6">
+        <v>5815</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" s="6">
+        <v>4274</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N112" s="6">
+        <v>3322</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>1685</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T112" s="5">
+        <v>872</v>
+      </c>
+      <c r="V112" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W112" s="5">
+        <v>559</v>
+      </c>
+      <c r="Y112" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z112" s="5">
+        <v>548</v>
+      </c>
+      <c r="AB112" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC112" s="5">
+        <v>456</v>
+      </c>
+      <c r="AE112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF112" s="5">
+        <v>85</v>
+      </c>
+      <c r="AH112" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI112" s="5">
+        <v>55</v>
+      </c>
+      <c r="AK112" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL112" s="5">
+        <v>13</v>
+      </c>
+      <c r="AN112" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO112" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ112" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR112" s="5">
+        <v>7</v>
+      </c>
+      <c r="AT112" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU112" s="5">
+        <v>6</v>
+      </c>
+      <c r="AW112" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX112" s="5">
+        <v>6</v>
+      </c>
+      <c r="AZ112" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA112" s="5">
+        <v>5</v>
+      </c>
+      <c r="BC112" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD112" s="5">
+        <v>5</v>
+      </c>
+      <c r="BF112" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG112" s="5">
+        <v>5</v>
+      </c>
+      <c r="BI112" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ112" s="5">
+        <v>4</v>
+      </c>
+      <c r="BL112" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BM112" s="5">
+        <v>4</v>
+      </c>
+      <c r="BO112" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP112" s="5">
+        <v>3</v>
+      </c>
+      <c r="BR112" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS112" s="5">
+        <v>2</v>
+      </c>
+      <c r="BU112" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BV112" s="5">
+        <v>2</v>
+      </c>
+      <c r="BX112" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY112" s="5">
+        <v>2</v>
+      </c>
+      <c r="CA112" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB112" s="5">
+        <v>2</v>
+      </c>
+      <c r="CD112" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE112" s="5">
+        <v>2</v>
+      </c>
+      <c r="CG112" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CH112" s="5">
+        <v>1</v>
+      </c>
+      <c r="CJ112" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CK112" s="5">
+        <v>1</v>
+      </c>
+      <c r="CM112" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN112" s="5">
+        <v>1</v>
+      </c>
+      <c r="CP112" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ112" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS112" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CT112" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV112" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW112" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY112" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CZ112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>33011</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="6">
+        <v>84032</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="6">
+        <v>21604</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="6">
+        <v>20523</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" s="6">
+        <v>16698</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N113" s="6">
+        <v>7357</v>
+      </c>
+      <c r="P113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>7243</v>
+      </c>
+      <c r="S113" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T113" s="5">
+        <v>3165</v>
+      </c>
+      <c r="V113" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W113" s="5">
+        <v>3051</v>
+      </c>
+      <c r="Y113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z113" s="5">
+        <v>2382</v>
+      </c>
+      <c r="AB113" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC113" s="5">
+        <v>937</v>
+      </c>
+      <c r="AE113" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF113" s="5">
+        <v>393</v>
+      </c>
+      <c r="AH113" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI113" s="5">
+        <v>302</v>
+      </c>
+      <c r="AK113" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL113" s="5">
+        <v>46</v>
+      </c>
+      <c r="AN113" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO113" s="5">
+        <v>36</v>
+      </c>
+      <c r="AQ113" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR113" s="5">
+        <v>30</v>
+      </c>
+      <c r="AT113" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU113" s="5">
+        <v>29</v>
+      </c>
+      <c r="AW113" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX113" s="5">
+        <v>27</v>
+      </c>
+      <c r="AZ113" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA113" s="5">
+        <v>24</v>
+      </c>
+      <c r="BC113" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD113" s="5">
+        <v>22</v>
+      </c>
+      <c r="BF113" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG113" s="5">
+        <v>21</v>
+      </c>
+      <c r="BI113" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ113" s="5">
+        <v>20</v>
+      </c>
+      <c r="BL113" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BM113" s="5">
+        <v>19</v>
+      </c>
+      <c r="BO113" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP113" s="5">
+        <v>17</v>
+      </c>
+      <c r="BR113" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS113" s="5">
+        <v>14</v>
+      </c>
+      <c r="BU113" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV113" s="5">
+        <v>13</v>
+      </c>
+      <c r="BX113" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BY113" s="5">
+        <v>11</v>
+      </c>
+      <c r="CA113" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB113" s="5">
+        <v>9</v>
+      </c>
+      <c r="CD113" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE113" s="5">
+        <v>8</v>
+      </c>
+      <c r="CG113" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CH113" s="5">
+        <v>7</v>
+      </c>
+      <c r="CJ113" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK113" s="5">
+        <v>5</v>
+      </c>
+      <c r="CM113" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CN113" s="5">
+        <v>5</v>
+      </c>
+      <c r="CP113" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ113" s="5">
+        <v>5</v>
+      </c>
+      <c r="CS113" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CT113" s="5">
+        <v>5</v>
+      </c>
+      <c r="CV113" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CW113" s="5">
+        <v>3</v>
+      </c>
+      <c r="CY113" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CZ113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>33013</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="6">
+        <v>35237</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="6">
+        <v>8632</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="6">
+        <v>8465</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" s="6">
+        <v>7852</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N114" s="6">
+        <v>3171</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>2862</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T114" s="5">
+        <v>1332</v>
+      </c>
+      <c r="V114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W114" s="5">
+        <v>1162</v>
+      </c>
+      <c r="Y114" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z114" s="5">
+        <v>898</v>
+      </c>
+      <c r="AB114" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC114" s="5">
+        <v>394</v>
+      </c>
+      <c r="AE114" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF114" s="5">
+        <v>182</v>
+      </c>
+      <c r="AH114" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI114" s="5">
+        <v>164</v>
+      </c>
+      <c r="AK114" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL114" s="5">
+        <v>17</v>
+      </c>
+      <c r="AN114" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO114" s="5">
+        <v>15</v>
+      </c>
+      <c r="AQ114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR114" s="5">
+        <v>13</v>
+      </c>
+      <c r="AT114" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU114" s="5">
+        <v>12</v>
+      </c>
+      <c r="AW114" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX114" s="5">
+        <v>8</v>
+      </c>
+      <c r="AZ114" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA114" s="5">
+        <v>7</v>
+      </c>
+      <c r="BC114" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD114" s="5">
+        <v>7</v>
+      </c>
+      <c r="BF114" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG114" s="5">
+        <v>7</v>
+      </c>
+      <c r="BI114" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ114" s="5">
+        <v>7</v>
+      </c>
+      <c r="BL114" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM114" s="5">
+        <v>6</v>
+      </c>
+      <c r="BO114" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP114" s="5">
+        <v>5</v>
+      </c>
+      <c r="BR114" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BS114" s="5">
+        <v>5</v>
+      </c>
+      <c r="BU114" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV114" s="5">
+        <v>3</v>
+      </c>
+      <c r="BX114" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY114" s="5">
+        <v>3</v>
+      </c>
+      <c r="CA114" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CB114" s="5">
+        <v>2</v>
+      </c>
+      <c r="CD114" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE114" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG114" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH114" s="5">
+        <v>1</v>
+      </c>
+      <c r="CJ114" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CK114" s="5">
+        <v>1</v>
+      </c>
+      <c r="CM114" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN114" s="5">
+        <v>1</v>
+      </c>
+      <c r="CP114" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ114" s="5">
+        <v>1</v>
+      </c>
+      <c r="CS114" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CT114" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV114" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CW114" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY114" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CZ114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>33015</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="6">
+        <v>67413</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="6">
+        <v>15331</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="6">
+        <v>17936</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" s="6">
+        <v>13743</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N115" s="6">
+        <v>6071</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q115" s="5">
+        <v>5930</v>
+      </c>
+      <c r="S115" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T115" s="5">
+        <v>2660</v>
+      </c>
+      <c r="V115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W115" s="5">
+        <v>2083</v>
+      </c>
+      <c r="Y115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z115" s="5">
+        <v>1740</v>
+      </c>
+      <c r="AB115" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC115" s="5">
+        <v>1132</v>
+      </c>
+      <c r="AE115" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF115" s="5">
+        <v>324</v>
+      </c>
+      <c r="AH115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI115" s="5">
+        <v>177</v>
+      </c>
+      <c r="AK115" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL115" s="5">
+        <v>44</v>
+      </c>
+      <c r="AN115" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO115" s="5">
+        <v>29</v>
+      </c>
+      <c r="AQ115" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR115" s="5">
+        <v>26</v>
+      </c>
+      <c r="AT115" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU115" s="5">
+        <v>24</v>
+      </c>
+      <c r="AW115" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX115" s="5">
+        <v>24</v>
+      </c>
+      <c r="AZ115" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA115" s="5">
+        <v>15</v>
+      </c>
+      <c r="BC115" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD115" s="5">
+        <v>15</v>
+      </c>
+      <c r="BF115" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG115" s="5">
+        <v>14</v>
+      </c>
+      <c r="BI115" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ115" s="5">
+        <v>14</v>
+      </c>
+      <c r="BL115" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BM115" s="5">
+        <v>13</v>
+      </c>
+      <c r="BO115" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP115" s="5">
+        <v>12</v>
+      </c>
+      <c r="BR115" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BS115" s="5">
+        <v>11</v>
+      </c>
+      <c r="BU115" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV115" s="5">
+        <v>8</v>
+      </c>
+      <c r="BX115" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BY115" s="5">
+        <v>7</v>
+      </c>
+      <c r="CA115" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CB115" s="5">
+        <v>6</v>
+      </c>
+      <c r="CD115" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE115" s="5">
+        <v>5</v>
+      </c>
+      <c r="CG115" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH115" s="5">
+        <v>5</v>
+      </c>
+      <c r="CJ115" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CK115" s="5">
+        <v>4</v>
+      </c>
+      <c r="CM115" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN115" s="5">
+        <v>4</v>
+      </c>
+      <c r="CP115" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CQ115" s="5">
+        <v>3</v>
+      </c>
+      <c r="CS115" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CT115" s="5">
+        <v>2</v>
+      </c>
+      <c r="CV115" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CW115" s="5">
+        <v>1</v>
+      </c>
+      <c r="CY115" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CZ115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>33017</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="6">
+        <v>29780</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="6">
+        <v>8912</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="6">
+        <v>6758</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" s="6">
+        <v>5176</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N116" s="6">
+        <v>2929</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>2246</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T116" s="5">
+        <v>1074</v>
+      </c>
+      <c r="V116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W116" s="5">
+        <v>953</v>
+      </c>
+      <c r="Y116" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z116" s="5">
+        <v>885</v>
+      </c>
+      <c r="AB116" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC116" s="5">
+        <v>483</v>
+      </c>
+      <c r="AE116" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF116" s="5">
+        <v>128</v>
+      </c>
+      <c r="AH116" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI116" s="5">
+        <v>84</v>
+      </c>
+      <c r="AK116" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL116" s="5">
+        <v>40</v>
+      </c>
+      <c r="AN116" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO116" s="5">
+        <v>16</v>
+      </c>
+      <c r="AQ116" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR116" s="5">
+        <v>13</v>
+      </c>
+      <c r="AT116" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU116" s="5">
+        <v>11</v>
+      </c>
+      <c r="AW116" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX116" s="5">
+        <v>11</v>
+      </c>
+      <c r="AZ116" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA116" s="5">
+        <v>10</v>
+      </c>
+      <c r="BC116" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD116" s="5">
+        <v>6</v>
+      </c>
+      <c r="BF116" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BG116" s="5">
+        <v>6</v>
+      </c>
+      <c r="BI116" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ116" s="5">
+        <v>5</v>
+      </c>
+      <c r="BL116" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BM116" s="5">
+        <v>5</v>
+      </c>
+      <c r="BO116" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP116" s="5">
+        <v>4</v>
+      </c>
+      <c r="BR116" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS116" s="5">
+        <v>4</v>
+      </c>
+      <c r="BU116" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV116" s="5">
+        <v>4</v>
+      </c>
+      <c r="BX116" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BY116" s="5">
+        <v>3</v>
+      </c>
+      <c r="CA116" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB116" s="5">
+        <v>2</v>
+      </c>
+      <c r="CD116" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE116" s="5">
+        <v>2</v>
+      </c>
+      <c r="CG116" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CH116" s="5">
+        <v>2</v>
+      </c>
+      <c r="CJ116" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CK116" s="5">
+        <v>2</v>
+      </c>
+      <c r="CM116" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN116" s="5">
+        <v>2</v>
+      </c>
+      <c r="CP116" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CQ116" s="5">
+        <v>2</v>
+      </c>
+      <c r="CS116" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CT116" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV116" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CW116" s="5">
+        <v>1</v>
+      </c>
+      <c r="CY116" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CZ116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>33019</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="6">
+        <v>8852</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="6">
+        <v>2420</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="6">
+        <v>2188</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K117" s="6">
+        <v>1626</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117" s="6">
+        <v>838</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>724</v>
+      </c>
+      <c r="S117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T117" s="5">
+        <v>314</v>
+      </c>
+      <c r="V117" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W117" s="5">
+        <v>264</v>
+      </c>
+      <c r="Y117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z117" s="5">
+        <v>238</v>
+      </c>
+      <c r="AB117" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC117" s="5">
+        <v>150</v>
+      </c>
+      <c r="AE117" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF117" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH117" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI117" s="5">
+        <v>23</v>
+      </c>
+      <c r="AK117" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL117" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN117" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO117" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ117" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR117" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT117" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU117" s="5">
+        <v>3</v>
+      </c>
+      <c r="AW117" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX117" s="5">
+        <v>3</v>
+      </c>
+      <c r="AZ117" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA117" s="5">
+        <v>2</v>
+      </c>
+      <c r="BC117" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD117" s="5">
+        <v>2</v>
+      </c>
+      <c r="BF117" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG117" s="5">
+        <v>1</v>
+      </c>
+      <c r="BI117" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BJ117" s="5">
+        <v>1</v>
+      </c>
+      <c r="BL117" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM117" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO117" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP117" s="5">
+        <v>1</v>
+      </c>
+      <c r="BR117" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS117" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU117" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV117" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX117" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BY117" s="5">
+        <v>1</v>
+      </c>
+      <c r="CA117" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CB117" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD117" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE117" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG117" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ117" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CK117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM117" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP117" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CQ117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS117" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV117" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CW117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY117" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CZ117" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results/2020/Primaries/Democrats.xlsx
+++ b/Results/2020/Primaries/Democrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF37BF4-42D5-45AB-8010-37CFBD2686EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E6FBF3-496F-4850-BF0C-584CC44B9F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11301,7 +11301,7 @@
         <v>67</v>
       </c>
       <c r="T67" s="5">
-        <f t="shared" ref="T67:T105" si="13">SUM(Y67:AX67)</f>
+        <f t="shared" ref="T67:T106" si="13">SUM(Y67:AX67)</f>
         <v>18</v>
       </c>
       <c r="U67" s="2">
@@ -16318,24 +16318,24 @@
         <v>11459</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E106" s="6">
-        <v>2688</v>
+        <v>2812</v>
       </c>
       <c r="F106" s="2">
         <f t="shared" si="8"/>
-        <v>0.23457544288332316</v>
+        <v>0.24539663146871454</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106" s="6">
-        <v>2812</v>
+        <v>2688</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" si="9"/>
-        <v>0.24539663146871454</v>
+        <v>0.23457544288332316</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>187</v>
@@ -16395,7 +16395,7 @@
         <v>410</v>
       </c>
       <c r="AE106" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AF106" s="5">
         <v>257</v>
@@ -16568,24 +16568,24 @@
         <v>11136</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E107" s="6">
-        <v>2605</v>
+        <v>2813</v>
       </c>
       <c r="F107" s="2">
         <f t="shared" si="8"/>
-        <v>0.23392600574712644</v>
+        <v>0.25260416666666669</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107" s="6">
-        <v>2813</v>
+        <v>2605</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" si="9"/>
-        <v>0.25260416666666669</v>
+        <v>0.23392600574712644</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>187</v>
@@ -16651,7 +16651,7 @@
         <v>252</v>
       </c>
       <c r="AH107" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AI107" s="5">
         <v>229</v>
@@ -16889,7 +16889,7 @@
         <v>651</v>
       </c>
       <c r="AB108" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AC108" s="5">
         <v>597</v>
@@ -17145,7 +17145,7 @@
         <v>206</v>
       </c>
       <c r="AE109" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AF109" s="5">
         <v>149</v>
@@ -17383,7 +17383,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="Z110" s="5">
         <v>872</v>
@@ -17645,7 +17645,7 @@
         <v>3051</v>
       </c>
       <c r="AE111" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AF111" s="5">
         <v>2382</v>
@@ -17818,24 +17818,24 @@
         <v>35237</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E112" s="6">
-        <v>8632</v>
+        <v>8465</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" si="8"/>
-        <v>0.24496977608763515</v>
+        <v>0.24023043959474416</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112" s="6">
-        <v>8465</v>
+        <v>8632</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" si="9"/>
-        <v>0.24023043959474416</v>
+        <v>0.24496977608763515</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>187</v>
@@ -17895,7 +17895,7 @@
         <v>1162</v>
       </c>
       <c r="AE112" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AF112" s="5">
         <v>898</v>
@@ -18068,24 +18068,24 @@
         <v>67413</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E113" s="6">
-        <v>15331</v>
+        <v>17936</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" si="8"/>
-        <v>0.22741904380460742</v>
+        <v>0.26606144215507394</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113" s="6">
-        <v>17936</v>
+        <v>15331</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" si="9"/>
-        <v>0.26606144215507394</v>
+        <v>0.22741904380460742</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>187</v>
@@ -18145,7 +18145,7 @@
         <v>2083</v>
       </c>
       <c r="AE113" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AF113" s="5">
         <v>1740</v>
@@ -18389,7 +18389,7 @@
         <v>1074</v>
       </c>
       <c r="AB114" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AC114" s="5">
         <v>953</v>
@@ -18645,7 +18645,7 @@
         <v>264</v>
       </c>
       <c r="AE115" s="5" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="AF115" s="5">
         <v>238</v>
@@ -18821,9 +18821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F35F74-FDAD-46CB-85ED-D8ECAAB7193A}">
   <dimension ref="A1:CZ117"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T108" sqref="T108"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29177,22 +29177,22 @@
         <v>33001</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C108" s="6">
         <v>11459</v>
       </c>
       <c r="D108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2812</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E108" s="6">
+      <c r="H108" s="6">
         <v>2688</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" s="6">
-        <v>2812</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>21</v>
@@ -29392,22 +29392,22 @@
         <v>33003</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C109" s="6">
         <v>11136</v>
       </c>
       <c r="D109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="6">
+        <v>2813</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="6">
+      <c r="H109" s="6">
         <v>2605</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" s="6">
-        <v>2813</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>21</v>
@@ -29607,7 +29607,7 @@
         <v>33005</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C110" s="6">
         <v>19012</v>
@@ -29822,7 +29822,7 @@
         <v>33007</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C111" s="6">
         <v>5354</v>
@@ -30037,7 +30037,7 @@
         <v>33009</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C112" s="6">
         <v>24347</v>
@@ -30252,7 +30252,7 @@
         <v>33011</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C113" s="6">
         <v>84032</v>
@@ -30467,22 +30467,22 @@
         <v>33013</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C114" s="6">
         <v>35237</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="6">
+        <v>8465</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E114" s="6">
+      <c r="H114" s="6">
         <v>8632</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" s="6">
-        <v>8465</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>21</v>
@@ -30682,22 +30682,22 @@
         <v>33015</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C115" s="6">
         <v>67413</v>
       </c>
       <c r="D115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="6">
+        <v>17936</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="6">
+      <c r="H115" s="6">
         <v>15331</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" s="6">
-        <v>17936</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>21</v>
@@ -30897,7 +30897,7 @@
         <v>33017</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C116" s="6">
         <v>29780</v>
@@ -31112,7 +31112,7 @@
         <v>33019</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C117" s="6">
         <v>8852</v>

--- a/Results/2020/Primaries/Democrats.xlsx
+++ b/Results/2020/Primaries/Democrats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E6FBF3-496F-4850-BF0C-584CC44B9F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF23E3-06A7-4DE3-AEF8-A5BE633FC2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="national" sheetId="7" r:id="rId1"/>
@@ -1589,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B1E82-8091-41B0-BD60-8CA737A0639A}">
   <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2690,7 +2690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B6EB17-8C82-40C4-9E5D-6C73964B174B}">
   <dimension ref="A1:DF115"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -11301,7 +11301,7 @@
         <v>67</v>
       </c>
       <c r="T67" s="5">
-        <f t="shared" ref="T67:T106" si="13">SUM(Y67:AX67)</f>
+        <f t="shared" ref="T67:T105" si="13">SUM(Y67:AX67)</f>
         <v>18</v>
       </c>
       <c r="U67" s="2">
@@ -18822,8 +18822,8 @@
   <dimension ref="A1:CZ117"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108:XFD117"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Results/2020/Primaries/Democrats.xlsx
+++ b/Results/2020/Primaries/Democrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF23E3-06A7-4DE3-AEF8-A5BE633FC2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8F9E3B-2A64-4B91-A232-99329D03355F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -592,9 +592,6 @@
     <t>איי הבתולה</t>
   </si>
   <si>
-    <t>delg</t>
-  </si>
-  <si>
     <t>delg6</t>
   </si>
   <si>
@@ -683,6 +680,12 @@
   </si>
   <si>
     <t>steyer</t>
+  </si>
+  <si>
+    <t>totalv</t>
+  </si>
+  <si>
+    <t>totald</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1638,10 @@
         <v>69</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1710,7 +1713,7 @@
         <v>44</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X2" s="5">
         <v>264</v>
@@ -1857,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P3" s="6">
         <v>58796</v>
@@ -2784,7 +2787,7 @@
         <v>44</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,7 +2801,7 @@
         <v>1180</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="6">
         <v>304</v>
@@ -2869,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC2" s="5">
         <v>7</v>
@@ -2938,7 +2941,7 @@
         <v>0.58123569794050345</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H3" s="6">
         <v>53</v>
@@ -3029,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR3" s="5">
         <v>0</v>
@@ -3078,7 +3081,7 @@
         <v>0.19372294372294371</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K4" s="6">
         <v>102</v>
@@ -3088,7 +3091,7 @@
         <v>0.11038961038961038</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N4" s="6">
         <v>72</v>
@@ -3208,7 +3211,7 @@
         <v>0.17270929466051418</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K5" s="6">
         <v>121</v>
@@ -3253,7 +3256,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z5" s="5">
         <v>2</v>
@@ -3328,7 +3331,7 @@
         <v>0.72868217054263562</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H6" s="6">
         <v>10</v>
@@ -3358,7 +3361,7 @@
         <v>5.4263565891472867E-2</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="5">
         <v>4</v>
@@ -3448,7 +3451,7 @@
         <v>228</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="6">
         <v>58</v>
@@ -3478,7 +3481,7 @@
         <v>0.17982456140350878</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N7" s="6">
         <v>29</v>
@@ -3588,7 +3591,7 @@
         <v>0.28971962616822428</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="6">
         <v>24</v>
@@ -3679,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR8" s="5">
         <v>0</v>
@@ -3718,7 +3721,7 @@
         <v>0.34879032258064518</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9" s="6">
         <v>97</v>
@@ -3773,7 +3776,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z9" s="5">
         <v>23</v>
@@ -3868,7 +3871,7 @@
         <v>0.16434540389972144</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N10" s="6">
         <v>24</v>
@@ -3878,7 +3881,7 @@
         <v>6.6852367688022288E-2</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="5">
         <v>12</v>
@@ -3909,13 +3912,13 @@
         <v>7</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC10" s="5">
         <v>4</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF10" s="5">
         <v>0</v>
@@ -3978,7 +3981,7 @@
         <v>0.30049261083743845</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11" s="6">
         <v>55</v>
@@ -4069,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR11" s="5">
         <v>0</v>
@@ -4128,7 +4131,7 @@
         <v>0.22291407222914073</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N12" s="6">
         <v>82</v>
@@ -4163,7 +4166,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z12" s="5">
         <v>1</v>
@@ -4268,7 +4271,7 @@
         <v>0.144937986732045</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="5">
         <v>768</v>
@@ -4299,7 +4302,7 @@
         <v>43</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC13" s="5">
         <v>43</v>
@@ -4388,7 +4391,7 @@
         <v>0.19022945965951146</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N14" s="6">
         <v>172</v>
@@ -4429,7 +4432,7 @@
         <v>18</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC14" s="5">
         <v>14</v>
@@ -4518,7 +4521,7 @@
         <v>0.15128006206361522</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N15" s="6">
         <v>195</v>
@@ -4559,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC15" s="5">
         <v>1</v>
@@ -4638,7 +4641,7 @@
         <v>0.25201072386058981</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K16" s="6">
         <v>121</v>
@@ -4683,7 +4686,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z16" s="5">
         <v>30</v>
@@ -4788,7 +4791,7 @@
         <v>0.15939278937381404</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="5">
         <v>59</v>
@@ -4813,7 +4816,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z17" s="5">
         <v>36</v>
@@ -4918,7 +4921,7 @@
         <v>0.15887850467289719</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="5">
         <v>67</v>
@@ -4943,7 +4946,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z18" s="5">
         <v>10</v>
@@ -5048,7 +5051,7 @@
         <v>0.13385826771653545</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="5">
         <v>28</v>
@@ -5109,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR19" s="5">
         <v>0</v>
@@ -5158,7 +5161,7 @@
         <v>0.2536115569823435</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K20" s="6">
         <v>120</v>
@@ -5203,7 +5206,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z20" s="5">
         <v>7</v>
@@ -5308,7 +5311,7 @@
         <v>0.16621983914209115</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q21" s="5">
         <v>52</v>
@@ -5369,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR21" s="5">
         <v>0</v>
@@ -5418,7 +5421,7 @@
         <v>0.24908869987849333</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K22" s="6">
         <v>156</v>
@@ -5499,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR22" s="5">
         <v>0</v>
@@ -5538,7 +5541,7 @@
         <v>0.29346622369878184</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H23" s="6">
         <v>425</v>
@@ -5593,7 +5596,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z23" s="5">
         <v>16</v>
@@ -5688,7 +5691,7 @@
         <v>0.21052631578947367</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N24" s="6">
         <v>37</v>
@@ -5723,7 +5726,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z24" s="5">
         <v>11</v>
@@ -5818,7 +5821,7 @@
         <v>0.1731266149870801</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N25" s="6">
         <v>57</v>
@@ -5889,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR25" s="5">
         <v>0</v>
@@ -5928,7 +5931,7 @@
         <v>0.24803149606299213</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H26" s="6">
         <v>60</v>
@@ -5958,7 +5961,7 @@
         <v>0.12204724409448819</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="5">
         <v>26</v>
@@ -6078,7 +6081,7 @@
         <v>0.2</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N27" s="6">
         <v>94</v>
@@ -6113,7 +6116,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z27" s="5">
         <v>6</v>
@@ -6188,7 +6191,7 @@
         <v>0.36708860759493672</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H28" s="6">
         <v>141</v>
@@ -6279,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR28" s="5">
         <v>0</v>
@@ -6338,7 +6341,7 @@
         <v>0.2413793103448276</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N29" s="6">
         <v>177</v>
@@ -6379,7 +6382,7 @@
         <v>16</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC29" s="5">
         <v>10</v>
@@ -6468,7 +6471,7 @@
         <v>0.16158536585365854</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N30" s="6">
         <v>34</v>
@@ -6478,7 +6481,7 @@
         <v>0.10365853658536585</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="5">
         <v>21</v>
@@ -6608,7 +6611,7 @@
         <v>0.14664804469273743</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="5">
         <v>655</v>
@@ -6633,7 +6636,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y31" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z31" s="5">
         <v>48</v>
@@ -6728,7 +6731,7 @@
         <v>0.15025906735751296</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N32" s="6">
         <v>26</v>
@@ -6769,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC32" s="5">
         <v>1</v>
@@ -6858,7 +6861,7 @@
         <v>0.2391304347826087</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N33" s="6">
         <v>65</v>
@@ -6929,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR33" s="5">
         <v>0</v>
@@ -6968,7 +6971,7 @@
         <v>0.25943396226415094</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H34" s="6">
         <v>100</v>
@@ -7059,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR34" s="5">
         <v>0</v>
@@ -7128,7 +7131,7 @@
         <v>0.1580411797440178</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q35" s="5">
         <v>136</v>
@@ -7153,7 +7156,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z35" s="5">
         <v>40</v>
@@ -7238,7 +7241,7 @@
         <v>0.23903177004538578</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K36" s="6">
         <v>118</v>
@@ -7283,7 +7286,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z36" s="5">
         <v>7</v>
@@ -7388,7 +7391,7 @@
         <v>0.15892083497439938</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q37" s="5">
         <v>446</v>
@@ -7413,7 +7416,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y37" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z37" s="5">
         <v>26</v>
@@ -7498,7 +7501,7 @@
         <v>0.23715415019762845</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K38" s="6">
         <v>39</v>
@@ -7579,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR38" s="5">
         <v>0</v>
@@ -7648,7 +7651,7 @@
         <v>0.11710526315789474</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q39" s="5">
         <v>82</v>
@@ -7679,7 +7682,7 @@
         <v>14</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC39" s="5">
         <v>7</v>
@@ -7738,7 +7741,7 @@
         <v>590</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40" s="6">
         <v>141</v>
@@ -7839,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR40" s="5">
         <v>0</v>
@@ -7898,7 +7901,7 @@
         <v>0.18292682926829268</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N41" s="6">
         <v>39</v>
@@ -7939,7 +7942,7 @@
         <v>3</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC41" s="5">
         <v>3</v>
@@ -8028,7 +8031,7 @@
         <v>0.24175824175824176</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N42" s="6">
         <v>39</v>
@@ -8099,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR42" s="5">
         <v>0</v>
@@ -8148,7 +8151,7 @@
         <v>0.26256983240223464</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K43" s="6">
         <v>76</v>
@@ -8199,7 +8202,7 @@
         <v>5</v>
       </c>
       <c r="AB43" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC43" s="5">
         <v>2</v>
@@ -8288,7 +8291,7 @@
         <v>0.20498614958448755</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N44" s="6">
         <v>65</v>
@@ -8323,7 +8326,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y44" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z44" s="5">
         <v>6</v>
@@ -8388,7 +8391,7 @@
         <v>349</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E45" s="6">
         <v>96</v>
@@ -8453,7 +8456,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z45" s="5">
         <v>29</v>
@@ -8558,7 +8561,7 @@
         <v>0.1756007393715342</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q46" s="5">
         <v>74</v>
@@ -8619,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR46" s="5">
         <v>0</v>
@@ -8658,7 +8661,7 @@
         <v>0.32319391634980987</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H47" s="6">
         <v>70</v>
@@ -8749,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR47" s="5">
         <v>0</v>
@@ -8798,7 +8801,7 @@
         <v>0.1867145421903052</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K48" s="6">
         <v>102</v>
@@ -8879,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR48" s="5">
         <v>0</v>
@@ -8938,7 +8941,7 @@
         <v>0.18811881188118812</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N49" s="6">
         <v>60</v>
@@ -9009,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR49" s="5">
         <v>0</v>
@@ -9078,7 +9081,7 @@
         <v>0.13030303030303031</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q50" s="5">
         <v>69</v>
@@ -9103,7 +9106,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z50" s="5">
         <v>51</v>
@@ -9188,7 +9191,7 @@
         <v>0.18846153846153846</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K51" s="6">
         <v>39</v>
@@ -9208,7 +9211,7 @@
         <v>0.1423076923076923</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q51" s="5">
         <v>24</v>
@@ -9318,7 +9321,7 @@
         <v>0.27848101265822783</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K52" s="6">
         <v>52</v>
@@ -9363,7 +9366,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y52" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z52" s="5">
         <v>1</v>
@@ -9448,7 +9451,7 @@
         <v>0.33103448275862069</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K53" s="6">
         <v>25</v>
@@ -9529,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR53" s="5">
         <v>0</v>
@@ -9598,7 +9601,7 @@
         <v>0.19124087591240876</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q54" s="5">
         <v>38</v>
@@ -9659,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR54" s="5">
         <v>0</v>
@@ -9718,7 +9721,7 @@
         <v>0.14453125</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N55" s="6">
         <v>90</v>
@@ -9753,7 +9756,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y55" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z55" s="5">
         <v>14</v>
@@ -9858,7 +9861,7 @@
         <v>0.14652956298200515</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q56" s="5">
         <v>113</v>
@@ -9883,7 +9886,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z56" s="5">
         <v>45</v>
@@ -9978,7 +9981,7 @@
         <v>0.10855063674954518</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N57" s="6">
         <v>86</v>
@@ -10049,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR57" s="5">
         <v>0</v>
@@ -10108,7 +10111,7 @@
         <v>0.18842395389626659</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N58" s="6">
         <v>2114</v>
@@ -10143,7 +10146,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y58" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z58" s="5">
         <v>22</v>
@@ -10238,7 +10241,7 @@
         <v>0.21839080459770116</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N59" s="6">
         <v>100</v>
@@ -10309,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR59" s="5">
         <v>0</v>
@@ -10358,7 +10361,7 @@
         <v>0.20233463035019456</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K60" s="6">
         <v>39</v>
@@ -10403,7 +10406,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z60" s="5">
         <v>7</v>
@@ -10488,7 +10491,7 @@
         <v>0.28159645232815966</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K61" s="6">
         <v>94</v>
@@ -10569,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR61" s="5">
         <v>0</v>
@@ -10638,7 +10641,7 @@
         <v>0.11532125205930807</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q62" s="5">
         <v>65</v>
@@ -10663,7 +10666,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z62" s="5">
         <v>40</v>
@@ -10768,7 +10771,7 @@
         <v>0.15151719487525286</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q63" s="5">
         <v>1678</v>
@@ -10793,7 +10796,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z63" s="5">
         <v>29</v>
@@ -10898,7 +10901,7 @@
         <v>0.16013071895424835</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q64" s="5">
         <v>42</v>
@@ -10923,7 +10926,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y64" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z64" s="5">
         <v>22</v>
@@ -11018,7 +11021,7 @@
         <v>0.15178571428571427</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N65" s="6">
         <v>28</v>
@@ -11059,7 +11062,7 @@
         <v>7</v>
       </c>
       <c r="AB65" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC65" s="5">
         <v>6</v>
@@ -11118,7 +11121,7 @@
         <v>185</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E66" s="6">
         <v>56</v>
@@ -11219,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR66" s="5">
         <v>0</v>
@@ -11278,7 +11281,7 @@
         <v>0.18513513513513513</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N67" s="6">
         <v>109</v>
@@ -11349,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR67" s="5">
         <v>0</v>
@@ -11418,7 +11421,7 @@
         <v>0.12131147540983607</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q68" s="5">
         <v>58</v>
@@ -11443,7 +11446,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z68" s="5">
         <v>57</v>
@@ -11528,7 +11531,7 @@
         <v>0.19467680608365018</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K69" s="6">
         <v>184</v>
@@ -11573,7 +11576,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z69" s="5">
         <v>46</v>
@@ -11678,7 +11681,7 @@
         <v>0.10236768802228412</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q70" s="5">
         <v>60</v>
@@ -11709,7 +11712,7 @@
         <v>7</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC70" s="5">
         <v>1</v>
@@ -11808,7 +11811,7 @@
         <v>0.12048192771084337</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q71" s="5">
         <v>40</v>
@@ -11869,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="AQ71" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR71" s="5">
         <v>0</v>
@@ -11898,7 +11901,7 @@
         <v>341</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" s="6">
         <v>116</v>
@@ -11963,7 +11966,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y72" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z72" s="5">
         <v>12</v>
@@ -12068,7 +12071,7 @@
         <v>0.14814814814814814</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q73" s="5">
         <v>27</v>
@@ -12129,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR73" s="5">
         <v>0</v>
@@ -12188,7 +12191,7 @@
         <v>0.18518518518518517</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N74" s="6">
         <v>25</v>
@@ -12259,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="AQ74" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR74" s="5">
         <v>0</v>
@@ -12318,7 +12321,7 @@
         <v>0.17578125</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N75" s="6">
         <v>36</v>
@@ -12389,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="AQ75" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR75" s="5">
         <v>0</v>
@@ -12458,7 +12461,7 @@
         <v>0.15343601895734596</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q76" s="5">
         <v>120</v>
@@ -12483,7 +12486,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z76" s="5">
         <v>16</v>
@@ -12548,7 +12551,7 @@
         <v>247</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E77" s="6">
         <v>54</v>
@@ -12619,7 +12622,7 @@
         <v>9</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC77" s="5">
         <v>3</v>
@@ -12688,7 +12691,7 @@
         <v>0.32857142857142857</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H78" s="6">
         <v>14</v>
@@ -12779,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="AQ78" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR78" s="5">
         <v>0</v>
@@ -12828,7 +12831,7 @@
         <v>0.26732673267326734</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K79" s="6">
         <v>78</v>
@@ -12873,7 +12876,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y79" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z79" s="5">
         <v>7</v>
@@ -12968,7 +12971,7 @@
         <v>0.16602316602316602</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N80" s="6">
         <v>34</v>
@@ -13039,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="AQ80" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR80" s="5">
         <v>0</v>
@@ -13098,7 +13101,7 @@
         <v>0.23232323232323232</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N81" s="6">
         <v>75</v>
@@ -13133,7 +13136,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y81" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z81" s="5">
         <v>13</v>
@@ -13208,7 +13211,7 @@
         <v>0.31111111111111112</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H82" s="6">
         <v>40</v>
@@ -13263,7 +13266,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y82" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z82" s="5">
         <v>7</v>
@@ -13368,7 +13371,7 @@
         <v>0.12860274851612213</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q83" s="5">
         <v>3999</v>
@@ -13393,7 +13396,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y83" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z83" s="5">
         <v>25</v>
@@ -13498,7 +13501,7 @@
         <v>0.13104368122707569</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q84" s="5">
         <v>374</v>
@@ -13523,7 +13526,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y84" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z84" s="5">
         <v>123</v>
@@ -13608,7 +13611,7 @@
         <v>0.33618233618233617</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K85" s="6">
         <v>170</v>
@@ -13689,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="AQ85" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR85" s="5">
         <v>0</v>
@@ -13738,7 +13741,7 @@
         <v>0.22068965517241379</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K86" s="6">
         <v>30</v>
@@ -13819,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="AQ86" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR86" s="5">
         <v>0</v>
@@ -13868,7 +13871,7 @@
         <v>0.23766816143497757</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K87" s="6">
         <v>40</v>
@@ -13913,7 +13916,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y87" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z87" s="5">
         <v>3</v>
@@ -14018,7 +14021,7 @@
         <v>0.14457269441529672</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q88" s="5">
         <v>1118</v>
@@ -14043,7 +14046,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y88" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z88" s="5">
         <v>107</v>
@@ -14118,7 +14121,7 @@
         <v>0.31578947368421051</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H89" s="6">
         <v>55</v>
@@ -14173,7 +14176,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y89" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z89" s="5">
         <v>1</v>
@@ -14248,7 +14251,7 @@
         <v>0.26165413533834586</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H90" s="6">
         <v>152</v>
@@ -14303,7 +14306,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y90" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z90" s="5">
         <v>56</v>
@@ -14388,7 +14391,7 @@
         <v>0.25262164429530204</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K91" s="6">
         <v>1611</v>
@@ -14433,7 +14436,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z91" s="5">
         <v>252</v>
@@ -14538,7 +14541,7 @@
         <v>0.10934744268077601</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q92" s="5">
         <v>29</v>
@@ -14563,7 +14566,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z92" s="5">
         <v>14</v>
@@ -14658,7 +14661,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N93" s="6">
         <v>12</v>
@@ -14693,7 +14696,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z93" s="5">
         <v>6</v>
@@ -14798,7 +14801,7 @@
         <v>0.12979351032448377</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q94" s="5">
         <v>41</v>
@@ -14823,7 +14826,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z94" s="5">
         <v>7</v>
@@ -14928,7 +14931,7 @@
         <v>0.15277777777777779</v>
       </c>
       <c r="P95" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q95" s="5">
         <v>0</v>
@@ -14971,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="AH95" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI95" s="5">
         <v>0</v>
@@ -14983,13 +14986,13 @@
         <v>0</v>
       </c>
       <c r="AN95" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AO95" s="5">
         <v>0</v>
       </c>
       <c r="AQ95" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR95" s="5">
         <v>0</v>
@@ -15058,7 +15061,7 @@
         <v>0.15720930232558139</v>
       </c>
       <c r="P96" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q96" s="5">
         <v>14</v>
@@ -15113,7 +15116,7 @@
         <v>0</v>
       </c>
       <c r="AN96" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AO96" s="5">
         <v>0</v>
@@ -15178,7 +15181,7 @@
         <v>0.15606936416184972</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N97" s="6">
         <v>419</v>
@@ -15213,7 +15216,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z97" s="5">
         <v>3</v>
@@ -15298,7 +15301,7 @@
         <v>0.22453222453222454</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K98" s="6">
         <v>177</v>
@@ -15339,7 +15342,7 @@
         <v>5.1975051975051978E-3</v>
       </c>
       <c r="W98" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(SUM(T98,Q98,N98,K98,H98,E98)=C98,"בסדר","לא")</f>
         <v>בסדר</v>
       </c>
       <c r="Y98" s="5" t="s">
@@ -15379,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="AQ98" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR98" s="5">
         <v>0</v>
@@ -15408,7 +15411,7 @@
         <v>135</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E99" s="6">
         <v>41</v>
@@ -15509,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="AQ99" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR99" s="5">
         <v>0</v>
@@ -15578,7 +15581,7 @@
         <v>8.1734778982485407E-2</v>
       </c>
       <c r="P100" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q100" s="5">
         <v>86</v>
@@ -15609,7 +15612,7 @@
         <v>10</v>
       </c>
       <c r="AB100" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC100" s="5">
         <v>4</v>
@@ -15688,7 +15691,7 @@
         <v>0.20918367346938777</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K101" s="6">
         <v>66</v>
@@ -15733,7 +15736,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z101" s="5">
         <v>29</v>
@@ -15808,7 +15811,7 @@
         <v>0.29507309149972927</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H102" s="6">
         <v>457</v>
@@ -15838,7 +15841,7 @@
         <v>0.19057931781266918</v>
       </c>
       <c r="P102" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q102" s="5">
         <v>49</v>
@@ -15968,7 +15971,7 @@
         <v>0.1440149625935162</v>
       </c>
       <c r="P103" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q103" s="5">
         <v>211</v>
@@ -15993,7 +15996,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y103" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z103" s="5">
         <v>40</v>
@@ -16058,7 +16061,7 @@
         <v>276</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E104" s="6">
         <v>77</v>
@@ -16123,7 +16126,7 @@
         <v>בסדר</v>
       </c>
       <c r="Y104" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z104" s="5">
         <v>23</v>
@@ -16198,7 +16201,7 @@
         <v>0.34319526627218933</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H105" s="6">
         <v>74</v>
@@ -16289,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="AQ105" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR105" s="5">
         <v>0</v>
@@ -16312,7 +16315,7 @@
         <v>33001</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106" s="6">
         <v>11459</v>
@@ -16338,7 +16341,7 @@
         <v>0.23457544288332316</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K106" s="6">
         <v>2438</v>
@@ -16401,7 +16404,7 @@
         <v>257</v>
       </c>
       <c r="AH106" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI106" s="5">
         <v>230</v>
@@ -16413,7 +16416,7 @@
         <v>48</v>
       </c>
       <c r="AN106" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO106" s="5">
         <v>38</v>
@@ -16425,61 +16428,61 @@
         <v>35</v>
       </c>
       <c r="AT106" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU106" s="5">
         <v>15</v>
       </c>
       <c r="AW106" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AX106" s="5">
         <v>8</v>
       </c>
       <c r="AZ106" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BA106" s="5">
         <v>6</v>
       </c>
       <c r="BC106" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BD106" s="5">
         <v>4</v>
       </c>
       <c r="BF106" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BG106" s="5">
         <v>3</v>
       </c>
       <c r="BI106" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BJ106" s="5">
         <v>3</v>
       </c>
       <c r="BL106" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BM106" s="5">
         <v>2</v>
       </c>
       <c r="BO106" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BP106" s="5">
         <v>2</v>
       </c>
       <c r="BR106" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BS106" s="5">
         <v>2</v>
       </c>
       <c r="BU106" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BV106" s="5">
         <v>2</v>
@@ -16491,67 +16494,67 @@
         <v>2</v>
       </c>
       <c r="CA106" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CB106" s="5">
         <v>2</v>
       </c>
       <c r="CD106" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CE106" s="5">
         <v>2</v>
       </c>
       <c r="CG106" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CH106" s="5">
         <v>1</v>
       </c>
       <c r="CJ106" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK106" s="5">
         <v>1</v>
       </c>
       <c r="CM106" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CN106" s="5">
         <v>1</v>
       </c>
       <c r="CP106" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CQ106" s="5">
         <v>1</v>
       </c>
       <c r="CS106" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CT106" s="5">
         <v>1</v>
       </c>
       <c r="CV106" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CW106" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY106" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="CW106" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY106" s="5" t="s">
+      <c r="CZ106" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB106" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="CZ106" s="5">
-        <v>0</v>
-      </c>
-      <c r="DB106" s="5" t="s">
+      <c r="DC106" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE106" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="DC106" s="5">
-        <v>0</v>
-      </c>
-      <c r="DE106" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="DF106" s="5">
         <v>0</v>
@@ -16562,7 +16565,7 @@
         <v>33003</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" s="6">
         <v>11136</v>
@@ -16588,7 +16591,7 @@
         <v>0.23392600574712644</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K107" s="6">
         <v>2464</v>
@@ -16645,7 +16648,7 @@
         <v>323</v>
       </c>
       <c r="AE107" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF107" s="5">
         <v>252</v>
@@ -16669,37 +16672,37 @@
         <v>31</v>
       </c>
       <c r="AQ107" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR107" s="5">
         <v>13</v>
       </c>
       <c r="AT107" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AU107" s="5">
         <v>8</v>
       </c>
       <c r="AW107" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX107" s="5">
         <v>6</v>
       </c>
       <c r="AZ107" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BA107" s="5">
         <v>5</v>
       </c>
       <c r="BC107" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD107" s="5">
         <v>3</v>
       </c>
       <c r="BF107" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BG107" s="5">
         <v>2</v>
@@ -16711,97 +16714,97 @@
         <v>2</v>
       </c>
       <c r="BL107" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BM107" s="5">
         <v>2</v>
       </c>
       <c r="BO107" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BP107" s="5">
         <v>2</v>
       </c>
       <c r="BR107" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BS107" s="5">
         <v>1</v>
       </c>
       <c r="BU107" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BV107" s="5">
         <v>1</v>
       </c>
       <c r="BX107" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BY107" s="5">
         <v>1</v>
       </c>
       <c r="CA107" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="CB107" s="5">
         <v>1</v>
       </c>
       <c r="CD107" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CE107" s="5">
         <v>1</v>
       </c>
       <c r="CG107" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CH107" s="5">
         <v>1</v>
       </c>
       <c r="CJ107" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CK107" s="5">
         <v>1</v>
       </c>
       <c r="CM107" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN107" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP107" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ107" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS107" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="CN107" s="5">
-        <v>0</v>
-      </c>
-      <c r="CP107" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CQ107" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS107" s="5" t="s">
+      <c r="CT107" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV107" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CW107" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY107" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ107" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB107" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="DC107" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE107" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="CT107" s="5">
-        <v>0</v>
-      </c>
-      <c r="CV107" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="CW107" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY107" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="CZ107" s="5">
-        <v>0</v>
-      </c>
-      <c r="DB107" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="DC107" s="5">
-        <v>0</v>
-      </c>
-      <c r="DE107" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="DF107" s="5">
         <v>0</v>
@@ -16812,7 +16815,7 @@
         <v>33005</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108" s="6">
         <v>19012</v>
@@ -16838,7 +16841,7 @@
         <v>0.21318114874815905</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K108" s="6">
         <v>3616</v>
@@ -16901,7 +16904,7 @@
         <v>582</v>
       </c>
       <c r="AH108" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI108" s="5">
         <v>270</v>
@@ -16919,85 +16922,85 @@
         <v>43</v>
       </c>
       <c r="AQ108" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR108" s="5">
         <v>10</v>
       </c>
       <c r="AT108" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU108" s="5">
         <v>9</v>
       </c>
       <c r="AW108" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX108" s="5">
         <v>9</v>
       </c>
       <c r="AZ108" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BA108" s="5">
         <v>9</v>
       </c>
       <c r="BC108" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD108" s="5">
         <v>7</v>
       </c>
       <c r="BF108" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BG108" s="5">
         <v>7</v>
       </c>
       <c r="BI108" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BJ108" s="5">
         <v>6</v>
       </c>
       <c r="BL108" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BM108" s="5">
         <v>6</v>
       </c>
       <c r="BO108" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BP108" s="5">
         <v>5</v>
       </c>
       <c r="BR108" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BS108" s="5">
         <v>4</v>
       </c>
       <c r="BU108" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BV108" s="5">
         <v>4</v>
       </c>
       <c r="BX108" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BY108" s="5">
         <v>4</v>
       </c>
       <c r="CA108" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CB108" s="5">
         <v>4</v>
       </c>
       <c r="CD108" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CE108" s="5">
         <v>3</v>
@@ -17009,49 +17012,49 @@
         <v>2</v>
       </c>
       <c r="CJ108" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CK108" s="5">
         <v>1</v>
       </c>
       <c r="CM108" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CN108" s="5">
         <v>1</v>
       </c>
       <c r="CP108" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CQ108" s="5">
         <v>1</v>
       </c>
       <c r="CS108" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CT108" s="5">
         <v>1</v>
       </c>
       <c r="CV108" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CW108" s="5">
         <v>0</v>
       </c>
       <c r="CY108" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CZ108" s="5">
         <v>0</v>
       </c>
       <c r="DB108" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="DC108" s="5">
         <v>0</v>
       </c>
       <c r="DE108" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="DF108" s="5">
         <v>0</v>
@@ -17062,7 +17065,7 @@
         <v>33007</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" s="6">
         <v>5354</v>
@@ -17088,7 +17091,7 @@
         <v>0.20433320881583864</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K109" s="6">
         <v>909</v>
@@ -17151,7 +17154,7 @@
         <v>149</v>
       </c>
       <c r="AH109" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI109" s="5">
         <v>145</v>
@@ -17163,13 +17166,13 @@
         <v>17</v>
       </c>
       <c r="AN109" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO109" s="5">
         <v>15</v>
       </c>
       <c r="AQ109" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AR109" s="5">
         <v>14</v>
@@ -17181,37 +17184,37 @@
         <v>7</v>
       </c>
       <c r="AW109" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AX109" s="5">
         <v>7</v>
       </c>
       <c r="AZ109" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BA109" s="5">
         <v>6</v>
       </c>
       <c r="BC109" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD109" s="5">
         <v>5</v>
       </c>
       <c r="BF109" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BG109" s="5">
         <v>5</v>
       </c>
       <c r="BI109" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BJ109" s="5">
         <v>4</v>
       </c>
       <c r="BL109" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BM109" s="5">
         <v>4</v>
@@ -17223,85 +17226,85 @@
         <v>3</v>
       </c>
       <c r="BR109" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BS109" s="5">
         <v>3</v>
       </c>
       <c r="BU109" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BV109" s="5">
         <v>2</v>
       </c>
       <c r="BX109" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BY109" s="5">
         <v>1</v>
       </c>
       <c r="CA109" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CB109" s="5">
         <v>1</v>
       </c>
       <c r="CD109" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="CE109" s="5">
         <v>1</v>
       </c>
       <c r="CG109" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CH109" s="5">
         <v>1</v>
       </c>
       <c r="CJ109" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CK109" s="5">
         <v>1</v>
       </c>
       <c r="CM109" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CN109" s="5">
         <v>1</v>
       </c>
       <c r="CP109" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CQ109" s="5">
         <v>0</v>
       </c>
       <c r="CS109" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CT109" s="5">
         <v>0</v>
       </c>
       <c r="CV109" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CW109" s="5">
         <v>0</v>
       </c>
       <c r="CY109" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CZ109" s="5">
         <v>0</v>
       </c>
       <c r="DB109" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DC109" s="5">
         <v>0</v>
       </c>
       <c r="DE109" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="DF109" s="5">
         <v>0</v>
@@ -17312,7 +17315,7 @@
         <v>33009</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C110" s="6">
         <v>24347</v>
@@ -17338,7 +17341,7 @@
         <v>0.23883846059062719</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K110" s="6">
         <v>4274</v>
@@ -17401,7 +17404,7 @@
         <v>548</v>
       </c>
       <c r="AH110" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI110" s="5">
         <v>456</v>
@@ -17419,49 +17422,49 @@
         <v>55</v>
       </c>
       <c r="AQ110" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR110" s="5">
         <v>13</v>
       </c>
       <c r="AT110" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AU110" s="5">
         <v>7</v>
       </c>
       <c r="AW110" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX110" s="5">
         <v>7</v>
       </c>
       <c r="AZ110" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BA110" s="5">
         <v>6</v>
       </c>
       <c r="BC110" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BD110" s="5">
         <v>6</v>
       </c>
       <c r="BF110" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BG110" s="5">
         <v>5</v>
       </c>
       <c r="BI110" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BJ110" s="5">
         <v>5</v>
       </c>
       <c r="BL110" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BM110" s="5">
         <v>5</v>
@@ -17473,85 +17476,85 @@
         <v>4</v>
       </c>
       <c r="BR110" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BS110" s="5">
         <v>4</v>
       </c>
       <c r="BU110" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BV110" s="5">
         <v>3</v>
       </c>
       <c r="BX110" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BY110" s="5">
         <v>2</v>
       </c>
       <c r="CA110" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CB110" s="5">
         <v>2</v>
       </c>
       <c r="CD110" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="CE110" s="5">
         <v>2</v>
       </c>
       <c r="CG110" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CH110" s="5">
         <v>2</v>
       </c>
       <c r="CJ110" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CK110" s="5">
         <v>2</v>
       </c>
       <c r="CM110" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CN110" s="5">
         <v>1</v>
       </c>
       <c r="CP110" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CQ110" s="5">
         <v>1</v>
       </c>
       <c r="CS110" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CT110" s="5">
         <v>1</v>
       </c>
       <c r="CV110" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CW110" s="5">
         <v>0</v>
       </c>
       <c r="CY110" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CZ110" s="5">
         <v>0</v>
       </c>
       <c r="DB110" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DC110" s="5">
         <v>0</v>
       </c>
       <c r="DE110" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="DF110" s="5">
         <v>0</v>
@@ -17562,7 +17565,7 @@
         <v>33011</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C111" s="6">
         <v>84032</v>
@@ -17588,7 +17591,7 @@
         <v>0.24422838918507236</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K111" s="6">
         <v>16698</v>
@@ -17651,7 +17654,7 @@
         <v>2382</v>
       </c>
       <c r="AH111" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI111" s="5">
         <v>937</v>
@@ -17669,31 +17672,31 @@
         <v>302</v>
       </c>
       <c r="AQ111" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR111" s="5">
         <v>46</v>
       </c>
       <c r="AT111" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AU111" s="5">
         <v>36</v>
       </c>
       <c r="AW111" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX111" s="5">
         <v>30</v>
       </c>
       <c r="AZ111" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BA111" s="5">
         <v>29</v>
       </c>
       <c r="BC111" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BD111" s="5">
         <v>27</v>
@@ -17705,103 +17708,103 @@
         <v>24</v>
       </c>
       <c r="BI111" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BJ111" s="5">
         <v>22</v>
       </c>
       <c r="BL111" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BM111" s="5">
         <v>21</v>
       </c>
       <c r="BO111" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BP111" s="5">
         <v>20</v>
       </c>
       <c r="BR111" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BS111" s="5">
         <v>19</v>
       </c>
       <c r="BU111" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BV111" s="5">
         <v>17</v>
       </c>
       <c r="BX111" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BY111" s="5">
         <v>14</v>
       </c>
       <c r="CA111" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CB111" s="5">
         <v>13</v>
       </c>
       <c r="CD111" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CE111" s="5">
         <v>11</v>
       </c>
       <c r="CG111" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CH111" s="5">
         <v>9</v>
       </c>
       <c r="CJ111" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK111" s="5">
         <v>8</v>
       </c>
       <c r="CM111" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CN111" s="5">
         <v>7</v>
       </c>
       <c r="CP111" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CQ111" s="5">
         <v>5</v>
       </c>
       <c r="CS111" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CT111" s="5">
         <v>5</v>
       </c>
       <c r="CV111" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CW111" s="5">
         <v>5</v>
       </c>
       <c r="CY111" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CZ111" s="5">
         <v>5</v>
       </c>
       <c r="DB111" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DC111" s="5">
         <v>3</v>
       </c>
       <c r="DE111" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DF111" s="5">
         <v>1</v>
@@ -17812,7 +17815,7 @@
         <v>33013</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C112" s="6">
         <v>35237</v>
@@ -17838,7 +17841,7 @@
         <v>0.24496977608763515</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K112" s="6">
         <v>7852</v>
@@ -17901,7 +17904,7 @@
         <v>898</v>
       </c>
       <c r="AH112" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI112" s="5">
         <v>394</v>
@@ -17919,13 +17922,13 @@
         <v>164</v>
       </c>
       <c r="AQ112" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR112" s="5">
         <v>17</v>
       </c>
       <c r="AT112" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU112" s="5">
         <v>15</v>
@@ -17937,121 +17940,121 @@
         <v>13</v>
       </c>
       <c r="AZ112" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BA112" s="5">
         <v>12</v>
       </c>
       <c r="BC112" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BD112" s="5">
         <v>8</v>
       </c>
       <c r="BF112" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BG112" s="5">
         <v>7</v>
       </c>
       <c r="BI112" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BJ112" s="5">
         <v>7</v>
       </c>
       <c r="BL112" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BM112" s="5">
         <v>7</v>
       </c>
       <c r="BO112" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP112" s="5">
         <v>7</v>
       </c>
       <c r="BR112" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BS112" s="5">
         <v>6</v>
       </c>
       <c r="BU112" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BV112" s="5">
         <v>5</v>
       </c>
       <c r="BX112" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BY112" s="5">
         <v>5</v>
       </c>
       <c r="CA112" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CB112" s="5">
         <v>3</v>
       </c>
       <c r="CD112" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CE112" s="5">
         <v>3</v>
       </c>
       <c r="CG112" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CH112" s="5">
         <v>2</v>
       </c>
       <c r="CJ112" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CK112" s="5">
         <v>1</v>
       </c>
       <c r="CM112" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CN112" s="5">
         <v>1</v>
       </c>
       <c r="CP112" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CQ112" s="5">
         <v>1</v>
       </c>
       <c r="CS112" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CT112" s="5">
         <v>1</v>
       </c>
       <c r="CV112" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CW112" s="5">
         <v>1</v>
       </c>
       <c r="CY112" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CZ112" s="5">
         <v>1</v>
       </c>
       <c r="DB112" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="DC112" s="5">
         <v>0</v>
       </c>
       <c r="DE112" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF112" s="5">
         <v>0</v>
@@ -18062,7 +18065,7 @@
         <v>33015</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C113" s="6">
         <v>67413</v>
@@ -18088,7 +18091,7 @@
         <v>0.22741904380460742</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K113" s="6">
         <v>13743</v>
@@ -18151,7 +18154,7 @@
         <v>1740</v>
       </c>
       <c r="AH113" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI113" s="5">
         <v>1132</v>
@@ -18169,31 +18172,31 @@
         <v>177</v>
       </c>
       <c r="AQ113" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR113" s="5">
         <v>44</v>
       </c>
       <c r="AT113" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU113" s="5">
         <v>29</v>
       </c>
       <c r="AW113" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX113" s="5">
         <v>26</v>
       </c>
       <c r="AZ113" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BA113" s="5">
         <v>24</v>
       </c>
       <c r="BC113" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD113" s="5">
         <v>24</v>
@@ -18205,103 +18208,103 @@
         <v>15</v>
       </c>
       <c r="BI113" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BJ113" s="5">
         <v>15</v>
       </c>
       <c r="BL113" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BM113" s="5">
         <v>14</v>
       </c>
       <c r="BO113" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BP113" s="5">
         <v>14</v>
       </c>
       <c r="BR113" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BS113" s="5">
         <v>13</v>
       </c>
       <c r="BU113" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BV113" s="5">
         <v>12</v>
       </c>
       <c r="BX113" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BY113" s="5">
         <v>11</v>
       </c>
       <c r="CA113" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CB113" s="5">
         <v>8</v>
       </c>
       <c r="CD113" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CE113" s="5">
         <v>7</v>
       </c>
       <c r="CG113" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CH113" s="5">
         <v>6</v>
       </c>
       <c r="CJ113" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CK113" s="5">
         <v>5</v>
       </c>
       <c r="CM113" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CN113" s="5">
         <v>5</v>
       </c>
       <c r="CP113" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CQ113" s="5">
         <v>4</v>
       </c>
       <c r="CS113" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CT113" s="5">
         <v>4</v>
       </c>
       <c r="CV113" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CW113" s="5">
         <v>3</v>
       </c>
       <c r="CY113" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CZ113" s="5">
         <v>2</v>
       </c>
       <c r="DB113" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DC113" s="5">
         <v>1</v>
       </c>
       <c r="DE113" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="DF113" s="5">
         <v>0</v>
@@ -18312,7 +18315,7 @@
         <v>33017</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C114" s="6">
         <v>29780</v>
@@ -18338,7 +18341,7 @@
         <v>0.22693082605775688</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K114" s="6">
         <v>5176</v>
@@ -18401,7 +18404,7 @@
         <v>885</v>
       </c>
       <c r="AH114" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI114" s="5">
         <v>483</v>
@@ -18419,7 +18422,7 @@
         <v>84</v>
       </c>
       <c r="AQ114" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR114" s="5">
         <v>40</v>
@@ -18431,127 +18434,127 @@
         <v>16</v>
       </c>
       <c r="AW114" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AX114" s="5">
         <v>13</v>
       </c>
       <c r="AZ114" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BA114" s="5">
         <v>11</v>
       </c>
       <c r="BC114" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BD114" s="5">
         <v>11</v>
       </c>
       <c r="BF114" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BG114" s="5">
         <v>10</v>
       </c>
       <c r="BI114" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BJ114" s="5">
         <v>6</v>
       </c>
       <c r="BL114" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BM114" s="5">
         <v>6</v>
       </c>
       <c r="BO114" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BP114" s="5">
         <v>5</v>
       </c>
       <c r="BR114" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BS114" s="5">
         <v>5</v>
       </c>
       <c r="BU114" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BV114" s="5">
         <v>4</v>
       </c>
       <c r="BX114" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BY114" s="5">
         <v>4</v>
       </c>
       <c r="CA114" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CB114" s="5">
         <v>4</v>
       </c>
       <c r="CD114" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CE114" s="5">
         <v>3</v>
       </c>
       <c r="CG114" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CH114" s="5">
         <v>2</v>
       </c>
       <c r="CJ114" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK114" s="5">
         <v>2</v>
       </c>
       <c r="CM114" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CN114" s="5">
         <v>2</v>
       </c>
       <c r="CP114" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CQ114" s="5">
         <v>2</v>
       </c>
       <c r="CS114" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CT114" s="5">
         <v>2</v>
       </c>
       <c r="CV114" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CW114" s="5">
         <v>2</v>
       </c>
       <c r="CY114" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CZ114" s="5">
         <v>1</v>
       </c>
       <c r="DB114" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DC114" s="5">
         <v>1</v>
       </c>
       <c r="DE114" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="DF114" s="5">
         <v>0</v>
@@ -18562,7 +18565,7 @@
         <v>33019</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C115" s="6">
         <v>8852</v>
@@ -18588,7 +18591,7 @@
         <v>0.24717577948486219</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K115" s="6">
         <v>1626</v>
@@ -18651,7 +18654,7 @@
         <v>238</v>
       </c>
       <c r="AH115" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI115" s="5">
         <v>150</v>
@@ -18669,55 +18672,55 @@
         <v>23</v>
       </c>
       <c r="AQ115" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR115" s="5">
         <v>6</v>
       </c>
       <c r="AT115" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU115" s="5">
         <v>5</v>
       </c>
       <c r="AW115" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AX115" s="5">
         <v>3</v>
       </c>
       <c r="AZ115" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BA115" s="5">
         <v>3</v>
       </c>
       <c r="BC115" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BD115" s="5">
         <v>3</v>
       </c>
       <c r="BF115" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BG115" s="5">
         <v>2</v>
       </c>
       <c r="BI115" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BJ115" s="5">
         <v>2</v>
       </c>
       <c r="BL115" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BM115" s="5">
         <v>1</v>
       </c>
       <c r="BO115" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP115" s="5">
         <v>1</v>
@@ -18729,79 +18732,79 @@
         <v>1</v>
       </c>
       <c r="BU115" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BV115" s="5">
         <v>1</v>
       </c>
       <c r="BX115" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BY115" s="5">
         <v>1</v>
       </c>
       <c r="CA115" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CB115" s="5">
         <v>1</v>
       </c>
       <c r="CD115" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CE115" s="5">
         <v>1</v>
       </c>
       <c r="CG115" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CH115" s="5">
         <v>1</v>
       </c>
       <c r="CJ115" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CK115" s="5">
         <v>1</v>
       </c>
       <c r="CM115" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CN115" s="5">
         <v>0</v>
       </c>
       <c r="CP115" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="CQ115" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS115" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="CQ115" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS115" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="CT115" s="5">
         <v>0</v>
       </c>
       <c r="CV115" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CW115" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY115" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="CZ115" s="5">
+        <v>0</v>
+      </c>
+      <c r="DB115" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="DC115" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE115" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="CW115" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY115" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="CZ115" s="5">
-        <v>0</v>
-      </c>
-      <c r="DB115" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="DC115" s="5">
-        <v>0</v>
-      </c>
-      <c r="DE115" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="DF115" s="5">
         <v>0</v>
@@ -28962,7 +28965,7 @@
         <v>72</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" s="6">
         <v>296622</v>
@@ -29016,7 +29019,7 @@
         <v>8315</v>
       </c>
       <c r="AB107" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC107" s="5">
         <v>4449</v>
@@ -29034,31 +29037,31 @@
         <v>963</v>
       </c>
       <c r="AK107" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL107" s="5">
         <v>155</v>
       </c>
       <c r="AN107" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO107" s="5">
         <v>143</v>
       </c>
       <c r="AQ107" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR107" s="5">
         <v>104</v>
       </c>
       <c r="AT107" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU107" s="5">
         <v>95</v>
       </c>
       <c r="AW107" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AX107" s="5">
         <v>85</v>
@@ -29070,103 +29073,103 @@
         <v>82</v>
       </c>
       <c r="BC107" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD107" s="5">
         <v>81</v>
       </c>
       <c r="BF107" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BG107" s="5">
         <v>81</v>
       </c>
       <c r="BI107" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BJ107" s="5">
         <v>70</v>
       </c>
       <c r="BL107" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BM107" s="5">
         <v>65</v>
       </c>
       <c r="BO107" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BP107" s="5">
         <v>63</v>
       </c>
       <c r="BR107" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BS107" s="5">
         <v>54</v>
       </c>
       <c r="BU107" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BV107" s="5">
         <v>53</v>
       </c>
       <c r="BX107" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BY107" s="5">
         <v>33</v>
       </c>
       <c r="CA107" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CB107" s="5">
         <v>32</v>
       </c>
       <c r="CD107" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE107" s="5">
         <v>31</v>
       </c>
       <c r="CG107" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CH107" s="5">
         <v>30</v>
       </c>
       <c r="CJ107" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CK107" s="5">
         <v>29</v>
       </c>
       <c r="CM107" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CN107" s="5">
         <v>23</v>
       </c>
       <c r="CP107" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CQ107" s="5">
         <v>21</v>
       </c>
       <c r="CS107" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CT107" s="5">
         <v>12</v>
       </c>
       <c r="CV107" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CW107" s="5">
         <v>11</v>
       </c>
       <c r="CY107" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CZ107" s="5">
         <v>9</v>
@@ -29177,7 +29180,7 @@
         <v>33001</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108" s="6">
         <v>11459</v>
@@ -29231,7 +29234,7 @@
         <v>257</v>
       </c>
       <c r="AB108" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC108" s="5">
         <v>230</v>
@@ -29243,7 +29246,7 @@
         <v>48</v>
       </c>
       <c r="AH108" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI108" s="5">
         <v>38</v>
@@ -29255,61 +29258,61 @@
         <v>35</v>
       </c>
       <c r="AN108" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO108" s="5">
         <v>15</v>
       </c>
       <c r="AQ108" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR108" s="5">
         <v>8</v>
       </c>
       <c r="AT108" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AU108" s="5">
         <v>6</v>
       </c>
       <c r="AW108" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AX108" s="5">
         <v>4</v>
       </c>
       <c r="AZ108" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BA108" s="5">
         <v>3</v>
       </c>
       <c r="BC108" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BD108" s="5">
         <v>3</v>
       </c>
       <c r="BF108" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BG108" s="5">
         <v>2</v>
       </c>
       <c r="BI108" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BJ108" s="5">
         <v>2</v>
       </c>
       <c r="BL108" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BM108" s="5">
         <v>2</v>
       </c>
       <c r="BO108" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BP108" s="5">
         <v>2</v>
@@ -29321,67 +29324,67 @@
         <v>2</v>
       </c>
       <c r="BU108" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV108" s="5">
         <v>2</v>
       </c>
       <c r="BX108" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BY108" s="5">
         <v>2</v>
       </c>
       <c r="CA108" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CB108" s="5">
         <v>1</v>
       </c>
       <c r="CD108" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE108" s="5">
         <v>1</v>
       </c>
       <c r="CG108" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CH108" s="5">
         <v>1</v>
       </c>
       <c r="CJ108" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CK108" s="5">
         <v>1</v>
       </c>
       <c r="CM108" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CN108" s="5">
         <v>1</v>
       </c>
       <c r="CP108" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CQ108" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS108" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="CQ108" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS108" s="5" t="s">
+      <c r="CT108" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV108" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="CT108" s="5">
-        <v>0</v>
-      </c>
-      <c r="CV108" s="5" t="s">
+      <c r="CW108" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY108" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="CW108" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY108" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="CZ108" s="5">
         <v>0</v>
@@ -29392,7 +29395,7 @@
         <v>33003</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" s="6">
         <v>11136</v>
@@ -29440,7 +29443,7 @@
         <v>323</v>
       </c>
       <c r="Y109" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z109" s="5">
         <v>252</v>
@@ -29464,37 +29467,37 @@
         <v>31</v>
       </c>
       <c r="AK109" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL109" s="5">
         <v>13</v>
       </c>
       <c r="AN109" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AO109" s="5">
         <v>8</v>
       </c>
       <c r="AQ109" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AR109" s="5">
         <v>6</v>
       </c>
       <c r="AT109" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU109" s="5">
         <v>5</v>
       </c>
       <c r="AW109" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX109" s="5">
         <v>3</v>
       </c>
       <c r="AZ109" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BA109" s="5">
         <v>2</v>
@@ -29506,97 +29509,97 @@
         <v>2</v>
       </c>
       <c r="BF109" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BG109" s="5">
         <v>2</v>
       </c>
       <c r="BI109" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BJ109" s="5">
         <v>2</v>
       </c>
       <c r="BL109" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BM109" s="5">
         <v>1</v>
       </c>
       <c r="BO109" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BP109" s="5">
         <v>1</v>
       </c>
       <c r="BR109" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BS109" s="5">
         <v>1</v>
       </c>
       <c r="BU109" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BV109" s="5">
         <v>1</v>
       </c>
       <c r="BX109" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BY109" s="5">
         <v>1</v>
       </c>
       <c r="CA109" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CB109" s="5">
         <v>1</v>
       </c>
       <c r="CD109" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CE109" s="5">
         <v>1</v>
       </c>
       <c r="CG109" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="CH109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ109" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="CK109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM109" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="CH109" s="5">
-        <v>0</v>
-      </c>
-      <c r="CJ109" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CK109" s="5">
-        <v>0</v>
-      </c>
-      <c r="CM109" s="5" t="s">
+      <c r="CN109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP109" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CQ109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS109" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV109" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW109" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY109" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="CN109" s="5">
-        <v>0</v>
-      </c>
-      <c r="CP109" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="CQ109" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS109" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="CT109" s="5">
-        <v>0</v>
-      </c>
-      <c r="CV109" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="CW109" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY109" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="CZ109" s="5">
         <v>0</v>
@@ -29607,7 +29610,7 @@
         <v>33005</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C110" s="6">
         <v>19012</v>
@@ -29661,7 +29664,7 @@
         <v>582</v>
       </c>
       <c r="AB110" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC110" s="5">
         <v>270</v>
@@ -29679,85 +29682,85 @@
         <v>43</v>
       </c>
       <c r="AK110" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL110" s="5">
         <v>10</v>
       </c>
       <c r="AN110" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO110" s="5">
         <v>9</v>
       </c>
       <c r="AQ110" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AR110" s="5">
         <v>9</v>
       </c>
       <c r="AT110" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU110" s="5">
         <v>9</v>
       </c>
       <c r="AW110" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX110" s="5">
         <v>7</v>
       </c>
       <c r="AZ110" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BA110" s="5">
         <v>7</v>
       </c>
       <c r="BC110" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BD110" s="5">
         <v>6</v>
       </c>
       <c r="BF110" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BG110" s="5">
         <v>6</v>
       </c>
       <c r="BI110" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ110" s="5">
         <v>5</v>
       </c>
       <c r="BL110" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BM110" s="5">
         <v>4</v>
       </c>
       <c r="BO110" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BP110" s="5">
         <v>4</v>
       </c>
       <c r="BR110" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BS110" s="5">
         <v>4</v>
       </c>
       <c r="BU110" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BV110" s="5">
         <v>4</v>
       </c>
       <c r="BX110" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BY110" s="5">
         <v>3</v>
@@ -29769,49 +29772,49 @@
         <v>2</v>
       </c>
       <c r="CD110" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CE110" s="5">
         <v>1</v>
       </c>
       <c r="CG110" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH110" s="5">
         <v>1</v>
       </c>
       <c r="CJ110" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CK110" s="5">
         <v>1</v>
       </c>
       <c r="CM110" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CN110" s="5">
         <v>1</v>
       </c>
       <c r="CP110" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CQ110" s="5">
         <v>0</v>
       </c>
       <c r="CS110" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CT110" s="5">
         <v>0</v>
       </c>
       <c r="CV110" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CW110" s="5">
         <v>0</v>
       </c>
       <c r="CY110" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CZ110" s="5">
         <v>0</v>
@@ -29822,7 +29825,7 @@
         <v>33007</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C111" s="6">
         <v>5354</v>
@@ -29876,7 +29879,7 @@
         <v>149</v>
       </c>
       <c r="AB111" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC111" s="5">
         <v>145</v>
@@ -29888,13 +29891,13 @@
         <v>17</v>
       </c>
       <c r="AH111" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI111" s="5">
         <v>15</v>
       </c>
       <c r="AK111" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL111" s="5">
         <v>14</v>
@@ -29906,37 +29909,37 @@
         <v>7</v>
       </c>
       <c r="AQ111" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR111" s="5">
         <v>7</v>
       </c>
       <c r="AT111" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU111" s="5">
         <v>6</v>
       </c>
       <c r="AW111" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AX111" s="5">
         <v>5</v>
       </c>
       <c r="AZ111" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BA111" s="5">
         <v>5</v>
       </c>
       <c r="BC111" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BD111" s="5">
         <v>4</v>
       </c>
       <c r="BF111" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BG111" s="5">
         <v>4</v>
@@ -29948,85 +29951,85 @@
         <v>3</v>
       </c>
       <c r="BL111" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BM111" s="5">
         <v>3</v>
       </c>
       <c r="BO111" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BP111" s="5">
         <v>2</v>
       </c>
       <c r="BR111" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BS111" s="5">
         <v>1</v>
       </c>
       <c r="BU111" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BV111" s="5">
         <v>1</v>
       </c>
       <c r="BX111" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BY111" s="5">
         <v>1</v>
       </c>
       <c r="CA111" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CB111" s="5">
         <v>1</v>
       </c>
       <c r="CD111" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CE111" s="5">
         <v>1</v>
       </c>
       <c r="CG111" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CH111" s="5">
         <v>1</v>
       </c>
       <c r="CJ111" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CK111" s="5">
         <v>0</v>
       </c>
       <c r="CM111" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CN111" s="5">
         <v>0</v>
       </c>
       <c r="CP111" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CQ111" s="5">
         <v>0</v>
       </c>
       <c r="CS111" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CT111" s="5">
         <v>0</v>
       </c>
       <c r="CV111" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CW111" s="5">
         <v>0</v>
       </c>
       <c r="CY111" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CZ111" s="5">
         <v>0</v>
@@ -30037,7 +30040,7 @@
         <v>33009</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C112" s="6">
         <v>24347</v>
@@ -30091,7 +30094,7 @@
         <v>548</v>
       </c>
       <c r="AB112" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC112" s="5">
         <v>456</v>
@@ -30109,49 +30112,49 @@
         <v>55</v>
       </c>
       <c r="AK112" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL112" s="5">
         <v>13</v>
       </c>
       <c r="AN112" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO112" s="5">
         <v>7</v>
       </c>
       <c r="AQ112" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR112" s="5">
         <v>7</v>
       </c>
       <c r="AT112" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU112" s="5">
         <v>6</v>
       </c>
       <c r="AW112" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX112" s="5">
         <v>6</v>
       </c>
       <c r="AZ112" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA112" s="5">
         <v>5</v>
       </c>
       <c r="BC112" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BD112" s="5">
         <v>5</v>
       </c>
       <c r="BF112" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BG112" s="5">
         <v>5</v>
@@ -30163,85 +30166,85 @@
         <v>4</v>
       </c>
       <c r="BL112" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BM112" s="5">
         <v>4</v>
       </c>
       <c r="BO112" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BP112" s="5">
         <v>3</v>
       </c>
       <c r="BR112" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BS112" s="5">
         <v>2</v>
       </c>
       <c r="BU112" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BV112" s="5">
         <v>2</v>
       </c>
       <c r="BX112" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BY112" s="5">
         <v>2</v>
       </c>
       <c r="CA112" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CB112" s="5">
         <v>2</v>
       </c>
       <c r="CD112" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CE112" s="5">
         <v>2</v>
       </c>
       <c r="CG112" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH112" s="5">
         <v>1</v>
       </c>
       <c r="CJ112" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CK112" s="5">
         <v>1</v>
       </c>
       <c r="CM112" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CN112" s="5">
         <v>1</v>
       </c>
       <c r="CP112" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CQ112" s="5">
         <v>0</v>
       </c>
       <c r="CS112" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CT112" s="5">
         <v>0</v>
       </c>
       <c r="CV112" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CW112" s="5">
         <v>0</v>
       </c>
       <c r="CY112" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CZ112" s="5">
         <v>0</v>
@@ -30252,7 +30255,7 @@
         <v>33011</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C113" s="6">
         <v>84032</v>
@@ -30306,7 +30309,7 @@
         <v>2382</v>
       </c>
       <c r="AB113" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC113" s="5">
         <v>937</v>
@@ -30324,31 +30327,31 @@
         <v>302</v>
       </c>
       <c r="AK113" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL113" s="5">
         <v>46</v>
       </c>
       <c r="AN113" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AO113" s="5">
         <v>36</v>
       </c>
       <c r="AQ113" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AR113" s="5">
         <v>30</v>
       </c>
       <c r="AT113" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU113" s="5">
         <v>29</v>
       </c>
       <c r="AW113" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX113" s="5">
         <v>27</v>
@@ -30360,103 +30363,103 @@
         <v>24</v>
       </c>
       <c r="BC113" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BD113" s="5">
         <v>22</v>
       </c>
       <c r="BF113" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BG113" s="5">
         <v>21</v>
       </c>
       <c r="BI113" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ113" s="5">
         <v>20</v>
       </c>
       <c r="BL113" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BM113" s="5">
         <v>19</v>
       </c>
       <c r="BO113" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP113" s="5">
         <v>17</v>
       </c>
       <c r="BR113" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BS113" s="5">
         <v>14</v>
       </c>
       <c r="BU113" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BV113" s="5">
         <v>13</v>
       </c>
       <c r="BX113" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BY113" s="5">
         <v>11</v>
       </c>
       <c r="CA113" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CB113" s="5">
         <v>9</v>
       </c>
       <c r="CD113" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE113" s="5">
         <v>8</v>
       </c>
       <c r="CG113" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CH113" s="5">
         <v>7</v>
       </c>
       <c r="CJ113" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CK113" s="5">
         <v>5</v>
       </c>
       <c r="CM113" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CN113" s="5">
         <v>5</v>
       </c>
       <c r="CP113" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CQ113" s="5">
         <v>5</v>
       </c>
       <c r="CS113" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CT113" s="5">
         <v>5</v>
       </c>
       <c r="CV113" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CW113" s="5">
         <v>3</v>
       </c>
       <c r="CY113" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CZ113" s="5">
         <v>1</v>
@@ -30467,7 +30470,7 @@
         <v>33013</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C114" s="6">
         <v>35237</v>
@@ -30521,7 +30524,7 @@
         <v>898</v>
       </c>
       <c r="AB114" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC114" s="5">
         <v>394</v>
@@ -30539,13 +30542,13 @@
         <v>164</v>
       </c>
       <c r="AK114" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL114" s="5">
         <v>17</v>
       </c>
       <c r="AN114" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO114" s="5">
         <v>15</v>
@@ -30557,121 +30560,121 @@
         <v>13</v>
       </c>
       <c r="AT114" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AU114" s="5">
         <v>12</v>
       </c>
       <c r="AW114" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX114" s="5">
         <v>8</v>
       </c>
       <c r="AZ114" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BA114" s="5">
         <v>7</v>
       </c>
       <c r="BC114" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BD114" s="5">
         <v>7</v>
       </c>
       <c r="BF114" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BG114" s="5">
         <v>7</v>
       </c>
       <c r="BI114" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BJ114" s="5">
         <v>7</v>
       </c>
       <c r="BL114" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BM114" s="5">
         <v>6</v>
       </c>
       <c r="BO114" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BP114" s="5">
         <v>5</v>
       </c>
       <c r="BR114" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BS114" s="5">
         <v>5</v>
       </c>
       <c r="BU114" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BV114" s="5">
         <v>3</v>
       </c>
       <c r="BX114" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BY114" s="5">
         <v>3</v>
       </c>
       <c r="CA114" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CB114" s="5">
         <v>2</v>
       </c>
       <c r="CD114" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE114" s="5">
         <v>1</v>
       </c>
       <c r="CG114" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CH114" s="5">
         <v>1</v>
       </c>
       <c r="CJ114" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK114" s="5">
         <v>1</v>
       </c>
       <c r="CM114" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CN114" s="5">
         <v>1</v>
       </c>
       <c r="CP114" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CQ114" s="5">
         <v>1</v>
       </c>
       <c r="CS114" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CT114" s="5">
         <v>1</v>
       </c>
       <c r="CV114" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CW114" s="5">
         <v>0</v>
       </c>
       <c r="CY114" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CZ114" s="5">
         <v>0</v>
@@ -30682,7 +30685,7 @@
         <v>33015</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C115" s="6">
         <v>67413</v>
@@ -30736,7 +30739,7 @@
         <v>1740</v>
       </c>
       <c r="AB115" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC115" s="5">
         <v>1132</v>
@@ -30754,31 +30757,31 @@
         <v>177</v>
       </c>
       <c r="AK115" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL115" s="5">
         <v>44</v>
       </c>
       <c r="AN115" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO115" s="5">
         <v>29</v>
       </c>
       <c r="AQ115" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR115" s="5">
         <v>26</v>
       </c>
       <c r="AT115" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU115" s="5">
         <v>24</v>
       </c>
       <c r="AW115" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX115" s="5">
         <v>24</v>
@@ -30790,103 +30793,103 @@
         <v>15</v>
       </c>
       <c r="BC115" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD115" s="5">
         <v>15</v>
       </c>
       <c r="BF115" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BG115" s="5">
         <v>14</v>
       </c>
       <c r="BI115" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BJ115" s="5">
         <v>14</v>
       </c>
       <c r="BL115" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BM115" s="5">
         <v>13</v>
       </c>
       <c r="BO115" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP115" s="5">
         <v>12</v>
       </c>
       <c r="BR115" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BS115" s="5">
         <v>11</v>
       </c>
       <c r="BU115" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BV115" s="5">
         <v>8</v>
       </c>
       <c r="BX115" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BY115" s="5">
         <v>7</v>
       </c>
       <c r="CA115" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CB115" s="5">
         <v>6</v>
       </c>
       <c r="CD115" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE115" s="5">
         <v>5</v>
       </c>
       <c r="CG115" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CH115" s="5">
         <v>5</v>
       </c>
       <c r="CJ115" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CK115" s="5">
         <v>4</v>
       </c>
       <c r="CM115" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CN115" s="5">
         <v>4</v>
       </c>
       <c r="CP115" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CQ115" s="5">
         <v>3</v>
       </c>
       <c r="CS115" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CT115" s="5">
         <v>2</v>
       </c>
       <c r="CV115" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CW115" s="5">
         <v>1</v>
       </c>
       <c r="CY115" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CZ115" s="5">
         <v>0</v>
@@ -30897,7 +30900,7 @@
         <v>33017</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C116" s="6">
         <v>29780</v>
@@ -30951,7 +30954,7 @@
         <v>885</v>
       </c>
       <c r="AB116" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC116" s="5">
         <v>483</v>
@@ -30969,7 +30972,7 @@
         <v>84</v>
       </c>
       <c r="AK116" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL116" s="5">
         <v>40</v>
@@ -30981,127 +30984,127 @@
         <v>16</v>
       </c>
       <c r="AQ116" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR116" s="5">
         <v>13</v>
       </c>
       <c r="AT116" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AU116" s="5">
         <v>11</v>
       </c>
       <c r="AW116" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX116" s="5">
         <v>11</v>
       </c>
       <c r="AZ116" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BA116" s="5">
         <v>10</v>
       </c>
       <c r="BC116" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD116" s="5">
         <v>6</v>
       </c>
       <c r="BF116" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BG116" s="5">
         <v>6</v>
       </c>
       <c r="BI116" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ116" s="5">
         <v>5</v>
       </c>
       <c r="BL116" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BM116" s="5">
         <v>5</v>
       </c>
       <c r="BO116" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BP116" s="5">
         <v>4</v>
       </c>
       <c r="BR116" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BS116" s="5">
         <v>4</v>
       </c>
       <c r="BU116" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BV116" s="5">
         <v>4</v>
       </c>
       <c r="BX116" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BY116" s="5">
         <v>3</v>
       </c>
       <c r="CA116" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CB116" s="5">
         <v>2</v>
       </c>
       <c r="CD116" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE116" s="5">
         <v>2</v>
       </c>
       <c r="CG116" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CH116" s="5">
         <v>2</v>
       </c>
       <c r="CJ116" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CK116" s="5">
         <v>2</v>
       </c>
       <c r="CM116" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CN116" s="5">
         <v>2</v>
       </c>
       <c r="CP116" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CQ116" s="5">
         <v>2</v>
       </c>
       <c r="CS116" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CT116" s="5">
         <v>1</v>
       </c>
       <c r="CV116" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CW116" s="5">
         <v>1</v>
       </c>
       <c r="CY116" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CZ116" s="5">
         <v>0</v>
@@ -31112,7 +31115,7 @@
         <v>33019</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C117" s="6">
         <v>8852</v>
@@ -31166,7 +31169,7 @@
         <v>238</v>
       </c>
       <c r="AB117" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC117" s="5">
         <v>150</v>
@@ -31184,55 +31187,55 @@
         <v>23</v>
       </c>
       <c r="AK117" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL117" s="5">
         <v>6</v>
       </c>
       <c r="AN117" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO117" s="5">
         <v>5</v>
       </c>
       <c r="AQ117" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR117" s="5">
         <v>3</v>
       </c>
       <c r="AT117" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AU117" s="5">
         <v>3</v>
       </c>
       <c r="AW117" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AX117" s="5">
         <v>3</v>
       </c>
       <c r="AZ117" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BA117" s="5">
         <v>2</v>
       </c>
       <c r="BC117" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD117" s="5">
         <v>2</v>
       </c>
       <c r="BF117" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BG117" s="5">
         <v>1</v>
       </c>
       <c r="BI117" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BJ117" s="5">
         <v>1</v>
@@ -31244,79 +31247,79 @@
         <v>1</v>
       </c>
       <c r="BO117" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BP117" s="5">
         <v>1</v>
       </c>
       <c r="BR117" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BS117" s="5">
         <v>1</v>
       </c>
       <c r="BU117" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BV117" s="5">
         <v>1</v>
       </c>
       <c r="BX117" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BY117" s="5">
         <v>1</v>
       </c>
       <c r="CA117" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CB117" s="5">
         <v>1</v>
       </c>
       <c r="CD117" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CE117" s="5">
         <v>1</v>
       </c>
       <c r="CG117" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CH117" s="5">
         <v>0</v>
       </c>
       <c r="CJ117" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="CK117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM117" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="CK117" s="5">
-        <v>0</v>
-      </c>
-      <c r="CM117" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="CN117" s="5">
         <v>0</v>
       </c>
       <c r="CP117" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CQ117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS117" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="CT117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CV117" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="CW117" s="5">
+        <v>0</v>
+      </c>
+      <c r="CY117" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="CQ117" s="5">
-        <v>0</v>
-      </c>
-      <c r="CS117" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT117" s="5">
-        <v>0</v>
-      </c>
-      <c r="CV117" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="CW117" s="5">
-        <v>0</v>
-      </c>
-      <c r="CY117" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="CZ117" s="5">
         <v>0</v>

--- a/Results/2020/Primaries/Democrats.xlsx
+++ b/Results/2020/Primaries/Democrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8F9E3B-2A64-4B91-A232-99329D03355F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE60F7-A564-43FE-BBAA-E2A630232A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="280">
   <si>
     <t>id</t>
   </si>
@@ -686,6 +686,195 @@
   </si>
   <si>
     <t>totald</t>
+  </si>
+  <si>
+    <t>cand14</t>
+  </si>
+  <si>
+    <t>vote14</t>
+  </si>
+  <si>
+    <t>pcnt14</t>
+  </si>
+  <si>
+    <t>cand15</t>
+  </si>
+  <si>
+    <t>vote15</t>
+  </si>
+  <si>
+    <t>pcnt15</t>
+  </si>
+  <si>
+    <t>cand16</t>
+  </si>
+  <si>
+    <t>vote16</t>
+  </si>
+  <si>
+    <t>pcnt16</t>
+  </si>
+  <si>
+    <t>cand17</t>
+  </si>
+  <si>
+    <t>vote17</t>
+  </si>
+  <si>
+    <t>pcnt17</t>
+  </si>
+  <si>
+    <t>cand18</t>
+  </si>
+  <si>
+    <t>vote18</t>
+  </si>
+  <si>
+    <t>pcnt18</t>
+  </si>
+  <si>
+    <t>cand19</t>
+  </si>
+  <si>
+    <t>vote19</t>
+  </si>
+  <si>
+    <t>pcnt19</t>
+  </si>
+  <si>
+    <t>cand20</t>
+  </si>
+  <si>
+    <t>vote20</t>
+  </si>
+  <si>
+    <t>pcnt20</t>
+  </si>
+  <si>
+    <t>cand21</t>
+  </si>
+  <si>
+    <t>vote21</t>
+  </si>
+  <si>
+    <t>pcnt21</t>
+  </si>
+  <si>
+    <t>cand22</t>
+  </si>
+  <si>
+    <t>vote22</t>
+  </si>
+  <si>
+    <t>pcnt22</t>
+  </si>
+  <si>
+    <t>cand23</t>
+  </si>
+  <si>
+    <t>vote23</t>
+  </si>
+  <si>
+    <t>pcnt23</t>
+  </si>
+  <si>
+    <t>cand24</t>
+  </si>
+  <si>
+    <t>vote24</t>
+  </si>
+  <si>
+    <t>pcnt24</t>
+  </si>
+  <si>
+    <t>cand25</t>
+  </si>
+  <si>
+    <t>vote25</t>
+  </si>
+  <si>
+    <t>pcnt25</t>
+  </si>
+  <si>
+    <t>cand26</t>
+  </si>
+  <si>
+    <t>vote26</t>
+  </si>
+  <si>
+    <t>pcnt26</t>
+  </si>
+  <si>
+    <t>cand27</t>
+  </si>
+  <si>
+    <t>vote27</t>
+  </si>
+  <si>
+    <t>pcnt27</t>
+  </si>
+  <si>
+    <t>cand28</t>
+  </si>
+  <si>
+    <t>vote28</t>
+  </si>
+  <si>
+    <t>pcnt28</t>
+  </si>
+  <si>
+    <t>cand29</t>
+  </si>
+  <si>
+    <t>vote29</t>
+  </si>
+  <si>
+    <t>pcnt29</t>
+  </si>
+  <si>
+    <t>cand30</t>
+  </si>
+  <si>
+    <t>vote30</t>
+  </si>
+  <si>
+    <t>pcnt30</t>
+  </si>
+  <si>
+    <t>cand31</t>
+  </si>
+  <si>
+    <t>vote31</t>
+  </si>
+  <si>
+    <t>pcnt31</t>
+  </si>
+  <si>
+    <t>cand32</t>
+  </si>
+  <si>
+    <t>vote32</t>
+  </si>
+  <si>
+    <t>pcnt32</t>
+  </si>
+  <si>
+    <t>cand33</t>
+  </si>
+  <si>
+    <t>vote33</t>
+  </si>
+  <si>
+    <t>pcnt33</t>
+  </si>
+  <si>
+    <t>cand34</t>
+  </si>
+  <si>
+    <t>vote34</t>
+  </si>
+  <si>
+    <t>pcnt34</t>
   </si>
 </sst>
 </file>
@@ -2684,6 +2873,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z58" xr:uid="{6EB2F853-D31B-46BC-BB5F-15660953976F}"/>
+  <sortState ref="A2:AD58">
+    <sortCondition ref="D2:D58"/>
+    <sortCondition ref="A2:A58"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2691,7 +2884,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B6EB17-8C82-40C4-9E5D-6C73964B174B}">
-  <dimension ref="A1:DF115"/>
+  <dimension ref="A1:DG115"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2722,7 +2915,7 @@
     <col min="22" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:111" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2789,8 +2982,66 @@
       <c r="W1" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="4"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="4"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="4"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="4"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="4"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="4"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="4"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="4"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="4"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="4"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="4"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="4"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="4"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="4"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="4"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="4"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="4"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="4"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="4"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="4"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="4"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="4"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="4"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="4"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="4"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="4"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="4"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="4"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="4"/>
     </row>
-    <row r="2" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1900</v>
       </c>
@@ -2920,7 +3171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1901</v>
       </c>
@@ -3050,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1902</v>
       </c>
@@ -3180,7 +3431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1903</v>
       </c>
@@ -3310,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1904</v>
       </c>
@@ -3440,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>19001</v>
       </c>
@@ -3570,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>19003</v>
       </c>
@@ -3700,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>19005</v>
       </c>
@@ -3830,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>19007</v>
       </c>
@@ -3960,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>19009</v>
       </c>
@@ -4090,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>19011</v>
       </c>
@@ -4220,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>19013</v>
       </c>
@@ -4350,7 +4601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>19015</v>
       </c>
@@ -4480,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>19017</v>
       </c>
@@ -4610,7 +4861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:111" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>19019</v>
       </c>
@@ -18822,7 +19073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F35F74-FDAD-46CB-85ED-D8ECAAB7193A}">
-  <dimension ref="A1:CZ117"/>
+  <dimension ref="A1:DA117"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18848,7 +19099,7 @@
     <col min="16" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18976,16 +19227,196 @@
         <v>65</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>65</v>
+        <v>219</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="CW1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="CZ1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -19080,7 +19511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1900</v>
       </c>
@@ -19175,7 +19606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1901</v>
       </c>
@@ -19270,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1902</v>
       </c>
@@ -19365,7 +19796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1903</v>
       </c>
@@ -19460,7 +19891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1904</v>
       </c>
@@ -19555,7 +19986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>19001</v>
       </c>
@@ -19650,7 +20081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>19003</v>
       </c>
@@ -19745,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>19005</v>
       </c>
@@ -19840,7 +20271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>19007</v>
       </c>
@@ -19935,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>19009</v>
       </c>
@@ -20030,7 +20461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>19011</v>
       </c>
@@ -20125,7 +20556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>19013</v>
       </c>
@@ -20220,7 +20651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>19015</v>
       </c>
@@ -20315,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:105" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>19017</v>
       </c>

--- a/Results/2020/Primaries/Democrats.xlsx
+++ b/Results/2020/Primaries/Democrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9998555-24D4-445C-9914-DC0CBF1B7458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77F87FF-FB02-41F3-8339-C2BC74B19121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -1925,7 +1925,7 @@
         <v>564</v>
       </c>
       <c r="I2" s="2">
-        <f>H2/E2</f>
+        <f>IF(E2=0,"0.0%",H2/E2)</f>
         <v>0.26208178438661711</v>
       </c>
       <c r="J2" s="6">
@@ -1938,7 +1938,7 @@
         <v>562</v>
       </c>
       <c r="M2" s="2">
-        <f>L2/E2</f>
+        <f>IF(E2=0,"0.0%",L2/E2)</f>
         <v>0.2611524163568773</v>
       </c>
       <c r="N2" s="6">
@@ -1951,7 +1951,7 @@
         <v>388</v>
       </c>
       <c r="Q2" s="2">
-        <f>P2/E2</f>
+        <f>IF(E2=0,"0.0%",P2/E2)</f>
         <v>0.18029739776951673</v>
       </c>
       <c r="R2" s="6">
@@ -1964,7 +1964,7 @@
         <v>340</v>
       </c>
       <c r="U2" s="2">
-        <f>T2/E2</f>
+        <f>IF(E2=0,"0.0%",T2/E2)</f>
         <v>0.15799256505576209</v>
       </c>
       <c r="V2" s="6">
@@ -1977,7 +1977,7 @@
         <v>264</v>
       </c>
       <c r="Y2" s="2">
-        <f>X2/E2</f>
+        <f>IF(E2=0,"0.0%",X2/E2)</f>
         <v>0.12267657992565056</v>
       </c>
       <c r="Z2" s="6">
@@ -1990,7 +1990,7 @@
         <v>34</v>
       </c>
       <c r="AC2" s="2">
-        <f>AB2/E2</f>
+        <f>IF(E2=0,"0.0%",AB2/E2)</f>
         <v>1.5799256505576207E-2</v>
       </c>
       <c r="AD2" s="5">
@@ -2023,7 +2023,7 @@
         <v>76324</v>
       </c>
       <c r="I3" s="2">
-        <f>H3/E3</f>
+        <f>IF(E3=0,"0.0%",H3/E3)</f>
         <v>0.25731065126659519</v>
       </c>
       <c r="J3" s="6">
@@ -2036,7 +2036,7 @@
         <v>72457</v>
       </c>
       <c r="M3" s="2">
-        <f>L3/E3</f>
+        <f>IF(E3=0,"0.0%",L3/E3)</f>
         <v>0.24427385696273371</v>
       </c>
       <c r="N3" s="6">
@@ -2049,7 +2049,7 @@
         <v>58796</v>
       </c>
       <c r="Q3" s="2">
-        <f>P3/E3</f>
+        <f>IF(E3=0,"0.0%",P3/E3)</f>
         <v>0.19821860819494172</v>
       </c>
       <c r="R3" s="6">
@@ -2062,7 +2062,7 @@
         <v>27387</v>
       </c>
       <c r="U3" s="2">
-        <f>T3/E3</f>
+        <f>IF(E3=0,"0.0%",T3/E3)</f>
         <v>9.2329631652406097E-2</v>
       </c>
       <c r="V3" s="6">
@@ -2075,7 +2075,7 @@
         <v>24921</v>
       </c>
       <c r="Y3" s="2">
-        <f>X3/E3</f>
+        <f>IF(E3=0,"0.0%",X3/E3)</f>
         <v>8.4016020389586749E-2</v>
       </c>
       <c r="Z3" s="6">
@@ -2088,7 +2088,7 @@
         <v>36737</v>
       </c>
       <c r="AC3" s="2">
-        <f>AB3/E3</f>
+        <f>IF(E3=0,"0.0%",AB3/E3)</f>
         <v>0.12385123153373653</v>
       </c>
       <c r="AD3" s="5">
@@ -2108,6 +2108,7 @@
       <c r="D4" s="9">
         <v>43883</v>
       </c>
+      <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2991,7 +2992,7 @@
         <v>304</v>
       </c>
       <c r="F2" s="2">
-        <f>E2/C2</f>
+        <f>IF(C2=0,"0.0%",E2/C2)</f>
         <v>0.25762711864406779</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3001,7 +3002,7 @@
         <v>247</v>
       </c>
       <c r="I2" s="2">
-        <f>H2/C2</f>
+        <f>IF(C2=0,"0.0%",H2/C2)</f>
         <v>0.20932203389830509</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -3011,7 +3012,7 @@
         <v>224</v>
       </c>
       <c r="L2" s="2">
-        <f>K2/C2</f>
+        <f>IF(C2=0,"0.0%",K2/C2)</f>
         <v>0.18983050847457628</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -3021,7 +3022,7 @@
         <v>199</v>
       </c>
       <c r="O2" s="2">
-        <f>N2/C2</f>
+        <f>IF(C2=0,"0.0%",N2/C2)</f>
         <v>0.16864406779661018</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -3031,7 +3032,7 @@
         <v>172</v>
       </c>
       <c r="R2" s="2">
-        <f>Q2/C2</f>
+        <f>IF(C2=0,"0.0%",Q2/C2)</f>
         <v>0.14576271186440679</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -3041,7 +3042,7 @@
         <v>34</v>
       </c>
       <c r="U2" s="2">
-        <f>T2/C2</f>
+        <f>IF(C2=0,"0.0%",T2/C2)</f>
         <v>2.8813559322033899E-2</v>
       </c>
     </row>
@@ -3062,7 +3063,7 @@
         <v>254</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="0">E3/C3</f>
+        <f t="shared" ref="F3:F66" si="0">IF(C3=0,"0.0%",E3/C3)</f>
         <v>0.58123569794050345</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3072,7 +3073,7 @@
         <v>53</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="1">H3/C3</f>
+        <f t="shared" ref="I3:I66" si="1">IF(C3=0,"0.0%",H3/C3)</f>
         <v>0.12128146453089245</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -3082,7 +3083,7 @@
         <v>52</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L66" si="2">K3/C3</f>
+        <f t="shared" ref="L3:L66" si="2">IF(C3=0,"0.0%",K3/C3)</f>
         <v>0.11899313501144165</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -3092,7 +3093,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O66" si="3">N3/C3</f>
+        <f t="shared" ref="O3:O66" si="3">IF(C3=0,"0.0%",N3/C3)</f>
         <v>8.2379862700228831E-2</v>
       </c>
       <c r="P3" s="5" t="s">
@@ -3102,7 +3103,7 @@
         <v>33</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R66" si="4">Q3/C3</f>
+        <f t="shared" ref="R3:R66" si="4">IF(C3=0,"0.0%",Q3/C3)</f>
         <v>7.5514874141876437E-2</v>
       </c>
       <c r="S3" s="5" t="s">
@@ -3112,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" ref="U3:U66" si="5">T3/C3</f>
+        <f t="shared" ref="U3:U66" si="5">IF(C3=0,"0.0%",T3/C3)</f>
         <v>2.0594965675057208E-2</v>
       </c>
     </row>
@@ -3460,16 +3461,6 @@
         <f t="shared" si="4"/>
         <v>0.14018691588785046</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -3673,16 +3664,6 @@
         <f t="shared" si="4"/>
         <v>0.10344827586206896</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T11" s="5">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -4454,16 +4435,6 @@
         <f t="shared" si="4"/>
         <v>0.1166464155528554</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -5874,16 +5845,6 @@
         <f t="shared" si="4"/>
         <v>2.197802197802198E-2</v>
       </c>
-      <c r="S42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T42" s="5">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -7606,7 +7567,7 @@
         <v>235</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F115" si="6">E67/C67</f>
+        <f t="shared" ref="F67:F115" si="6">IF(C67=0,"0.0%",E67/C67)</f>
         <v>0.31756756756756754</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -7616,7 +7577,7 @@
         <v>139</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I115" si="7">H67/C67</f>
+        <f t="shared" ref="I67:I115" si="7">IF(C67=0,"0.0%",H67/C67)</f>
         <v>0.18783783783783783</v>
       </c>
       <c r="J67" s="5" t="s">
@@ -7626,7 +7587,7 @@
         <v>137</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" ref="L67:L115" si="8">K67/C67</f>
+        <f t="shared" ref="L67:L115" si="8">IF(C67=0,"0.0%",K67/C67)</f>
         <v>0.18513513513513513</v>
       </c>
       <c r="M67" s="5" t="s">
@@ -7636,7 +7597,7 @@
         <v>109</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O115" si="9">N67/C67</f>
+        <f t="shared" ref="O67:O115" si="9">IF(C67=0,"0.0%",N67/C67)</f>
         <v>0.14729729729729729</v>
       </c>
       <c r="P67" s="5" t="s">
@@ -7646,7 +7607,7 @@
         <v>102</v>
       </c>
       <c r="R67" s="2">
-        <f t="shared" ref="R67:R115" si="10">Q67/C67</f>
+        <f t="shared" ref="R67:R115" si="10">IF(C67=0,"0.0%",Q67/C67)</f>
         <v>0.13783783783783785</v>
       </c>
       <c r="S67" s="5" t="s">
@@ -7656,7 +7617,7 @@
         <v>18</v>
       </c>
       <c r="U67" s="2">
-        <f t="shared" ref="U67:U115" si="11">T67/C67</f>
+        <f t="shared" ref="U67:U115" si="11">IF(C67=0,"0.0%",T67/C67)</f>
         <v>2.4324324324324326E-2</v>
       </c>
     </row>
@@ -7933,16 +7894,6 @@
         <f t="shared" si="10"/>
         <v>9.6385542168674704E-2</v>
       </c>
-      <c r="S71" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T71" s="5">
-        <v>0</v>
-      </c>
-      <c r="U71" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="72" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -8430,16 +8381,6 @@
         <f t="shared" si="10"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="S78" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T78" s="5">
-        <v>0</v>
-      </c>
-      <c r="U78" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="79" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -9628,23 +9569,13 @@
         <v>0.15277777777777779</v>
       </c>
       <c r="P95" s="5" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="Q95" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S95" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T95" s="5">
-        <v>3</v>
-      </c>
-      <c r="U95" s="2">
-        <f t="shared" si="11"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>

--- a/Results/2020/Primaries/Democrats.xlsx
+++ b/Results/2020/Primaries/Democrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77F87FF-FB02-41F3-8339-C2BC74B19121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623DAF14-3D8B-4AE6-A209-6F1BA0625AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="original" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">counties!$A$1:$U$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">counties!$A$1:$U$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">national!$A$1:$Z$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">original!$A$1:$AS$106</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="279">
   <si>
     <t>id</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>pcnt34</t>
+  </si>
+  <si>
+    <t>NV</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1779,7 @@
   <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1922,11 +1925,11 @@
         <v>31</v>
       </c>
       <c r="H2" s="6">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I2" s="2">
         <f>IF(E2=0,"0.0%",H2/E2)</f>
-        <v>0.26208178438661711</v>
+        <v>0.26161710037174724</v>
       </c>
       <c r="J2" s="6">
         <v>14</v>
@@ -2108,7 +2111,90 @@
       <c r="D4" s="9">
         <v>43883</v>
       </c>
-      <c r="AC4" s="2"/>
+      <c r="E4" s="6">
+        <v>14491</v>
+      </c>
+      <c r="F4" s="6">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6788</v>
+      </c>
+      <c r="I4" s="2">
+        <f>IF(E4=0,"0.0%",H4/E4)</f>
+        <v>0.46842867987026432</v>
+      </c>
+      <c r="J4" s="6">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2927</v>
+      </c>
+      <c r="M4" s="2">
+        <f>IF(E4=0,"0.0%",L4/E4)</f>
+        <v>0.20198744048029812</v>
+      </c>
+      <c r="N4" s="6">
+        <v>9</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2073</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>IF(E4=0,"0.0%",P4/E4)</f>
+        <v>0.14305430957145815</v>
+      </c>
+      <c r="R4" s="6">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1406</v>
+      </c>
+      <c r="U4" s="2">
+        <f>IF(E4=0,"0.0%",T4/E4)</f>
+        <v>9.7025740114553866E-2</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="X4" s="5">
+        <v>682</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>IF(E4=0,"0.0%",X4/E4)</f>
+        <v>4.7063694707059553E-2</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>615</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>IF(E4=0,"0.0%",AB4/E4)</f>
+        <v>4.2440135256366023E-2</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2879,7 +2965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B6EB17-8C82-40C4-9E5D-6C73964B174B}">
-  <dimension ref="A1:U115"/>
+  <dimension ref="A1:U132"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2983,17 +3069,17 @@
         <v>16</v>
       </c>
       <c r="C2" s="6">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E2" s="6">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F2" s="2">
-        <f>IF(C2=0,"0.0%",E2/C2)</f>
-        <v>0.25762711864406779</v>
+        <f t="shared" ref="F2:F65" si="0">IF(C2=0,"0.0%",E2/C2)</f>
+        <v>0.25636672325976229</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>34</v>
@@ -3002,8 +3088,8 @@
         <v>247</v>
       </c>
       <c r="I2" s="2">
-        <f>IF(C2=0,"0.0%",H2/C2)</f>
-        <v>0.20932203389830509</v>
+        <f t="shared" ref="I2:I65" si="1">IF(C2=0,"0.0%",H2/C2)</f>
+        <v>0.20967741935483872</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>31</v>
@@ -3012,8 +3098,8 @@
         <v>224</v>
       </c>
       <c r="L2" s="2">
-        <f>IF(C2=0,"0.0%",K2/C2)</f>
-        <v>0.18983050847457628</v>
+        <f t="shared" ref="L2:L65" si="2">IF(C2=0,"0.0%",K2/C2)</f>
+        <v>0.19015280135823429</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>33</v>
@@ -3022,8 +3108,8 @@
         <v>199</v>
       </c>
       <c r="O2" s="2">
-        <f>IF(C2=0,"0.0%",N2/C2)</f>
-        <v>0.16864406779661018</v>
+        <f t="shared" ref="O2:O65" si="3">IF(C2=0,"0.0%",N2/C2)</f>
+        <v>0.16893039049235994</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>32</v>
@@ -3032,8 +3118,8 @@
         <v>172</v>
       </c>
       <c r="R2" s="2">
-        <f>IF(C2=0,"0.0%",Q2/C2)</f>
-        <v>0.14576271186440679</v>
+        <f t="shared" ref="R2:R65" si="4">IF(C2=0,"0.0%",Q2/C2)</f>
+        <v>0.14601018675721561</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>67</v>
@@ -3043,7 +3129,7 @@
       </c>
       <c r="U2" s="2">
         <f>IF(C2=0,"0.0%",T2/C2)</f>
-        <v>2.8813559322033899E-2</v>
+        <v>2.8862478777589132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3054,17 +3140,17 @@
         <v>16</v>
       </c>
       <c r="C3" s="6">
-        <v>437</v>
+        <v>367</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="0">IF(C3=0,"0.0%",E3/C3)</f>
-        <v>0.58123569794050345</v>
+        <f t="shared" si="0"/>
+        <v>0.50136239782016345</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>186</v>
@@ -3073,8 +3159,8 @@
         <v>53</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="1">IF(C3=0,"0.0%",H3/C3)</f>
-        <v>0.12128146453089245</v>
+        <f t="shared" si="1"/>
+        <v>0.1444141689373297</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>33</v>
@@ -3083,8 +3169,8 @@
         <v>52</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L66" si="2">IF(C3=0,"0.0%",K3/C3)</f>
-        <v>0.11899313501144165</v>
+        <f t="shared" si="2"/>
+        <v>0.14168937329700274</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>34</v>
@@ -3093,8 +3179,8 @@
         <v>36</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O66" si="3">IF(C3=0,"0.0%",N3/C3)</f>
-        <v>8.2379862700228831E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.8092643051771122E-2</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>31</v>
@@ -3103,8 +3189,8 @@
         <v>33</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R66" si="4">IF(C3=0,"0.0%",Q3/C3)</f>
-        <v>7.5514874141876437E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.9918256130790186E-2</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>67</v>
@@ -3114,7 +3200,7 @@
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U66" si="5">IF(C3=0,"0.0%",T3/C3)</f>
-        <v>2.0594965675057208E-2</v>
+        <v>2.4523160762942781E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3409,7 +3495,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>33</v>
@@ -3419,7 +3505,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.28971962616822428</v>
+        <v>0.31</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>186</v>
@@ -3429,27 +3515,27 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>0.22429906542056074</v>
+        <v>0.24</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>0.17757009345794392</v>
+        <v>0.15</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="3"/>
-        <v>0.16822429906542055</v>
+        <v>0.15</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>34</v>
@@ -3459,7 +3545,7 @@
       </c>
       <c r="R8" s="2">
         <f t="shared" si="4"/>
-        <v>0.14018691588785046</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,37 +3830,37 @@
         <v>16</v>
       </c>
       <c r="C13" s="6">
-        <v>6934</v>
+        <v>6874</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="6">
-        <v>2168</v>
+        <v>2128</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.31266224401499854</v>
+        <v>0.30957230142566189</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="6">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>0.23593885203345832</v>
+        <v>0.2365434972359616</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K13" s="6">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>0.18099221228728007</v>
+        <v>0.18155368053535059</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>33</v>
@@ -3784,17 +3870,17 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="3"/>
-        <v>0.144937986732045</v>
+        <v>0.1462030840849578</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>186</v>
       </c>
       <c r="Q13" s="5">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="4"/>
-        <v>0.11075858090568215</v>
+        <v>0.11128891475123655</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>67</v>
@@ -3804,7 +3890,7 @@
       </c>
       <c r="U13" s="2">
         <f t="shared" si="5"/>
-        <v>1.471012402653591E-2</v>
+        <v>1.4838521966831539E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,7 +4327,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="6">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>31</v>
@@ -4251,7 +4337,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.31781701444622795</v>
+        <v>0.32195121951219513</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>33</v>
@@ -4261,7 +4347,7 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="1"/>
-        <v>0.2536115569823435</v>
+        <v>0.25691056910569104</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>186</v>
@@ -4271,17 +4357,17 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>0.1926163723916533</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="6">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="3"/>
-        <v>0.13964686998394862</v>
+        <v>0.12845528455284552</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>34</v>
@@ -4291,7 +4377,7 @@
       </c>
       <c r="R20" s="2">
         <f t="shared" si="4"/>
-        <v>8.186195826645265E-2</v>
+        <v>8.2926829268292687E-2</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>67</v>
@@ -4301,7 +4387,7 @@
       </c>
       <c r="U20" s="2">
         <f t="shared" si="5"/>
-        <v>1.4446227929373997E-2</v>
+        <v>1.4634146341463415E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,7 +4530,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="6">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>31</v>
@@ -4454,17 +4540,17 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.29346622369878184</v>
+        <v>0.29526462395543174</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>186</v>
       </c>
       <c r="H23" s="6">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="1"/>
-        <v>0.23532668881506091</v>
+        <v>0.2362116991643454</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>32</v>
@@ -4474,17 +4560,17 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>0.21539313399778517</v>
+        <v>0.21671309192200558</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="6">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="3"/>
-        <v>0.17884828349944629</v>
+        <v>0.17437325905292478</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>34</v>
@@ -4494,7 +4580,7 @@
       </c>
       <c r="R23" s="2">
         <f t="shared" si="4"/>
-        <v>6.1461794019933555E-2</v>
+        <v>6.183844011142061E-2</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>67</v>
@@ -4504,7 +4590,7 @@
       </c>
       <c r="U23" s="2">
         <f t="shared" si="5"/>
-        <v>1.5503875968992248E-2</v>
+        <v>1.5598885793871866E-2</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,7 +4672,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="6">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>31</v>
@@ -4596,7 +4682,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0.32558139534883723</v>
+        <v>0.33070866141732286</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>33</v>
@@ -4606,7 +4692,7 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="1"/>
-        <v>0.22997416020671835</v>
+        <v>0.23359580052493439</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>34</v>
@@ -4616,7 +4702,7 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>0.1731266149870801</v>
+        <v>0.17585301837270342</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>186</v>
@@ -4626,17 +4712,17 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="3"/>
-        <v>0.14728682170542637</v>
+        <v>0.14960629921259844</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="4"/>
-        <v>6.4599483204134361E-2</v>
+        <v>4.9868766404199474E-2</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>67</v>
@@ -4646,7 +4732,7 @@
       </c>
       <c r="U25" s="2">
         <f t="shared" si="5"/>
-        <v>5.9431524547803614E-2</v>
+        <v>6.0367454068241469E-2</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -4870,37 +4956,37 @@
         <v>16</v>
       </c>
       <c r="C29" s="6">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="6">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>0.27824019024970276</v>
+        <v>0.27847346451997612</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="6">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="1"/>
-        <v>0.2502972651605232</v>
+        <v>0.25163983303518189</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K29" s="6">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>0.2413793103448276</v>
+        <v>0.24150268336314848</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>186</v>
@@ -4910,7 +4996,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="3"/>
-        <v>0.10523186682520809</v>
+        <v>0.10554561717352415</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>34</v>
@@ -4920,17 +5006,17 @@
       </c>
       <c r="R29" s="2">
         <f t="shared" si="4"/>
-        <v>0.10107015457788347</v>
+        <v>0.10137149672033392</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>67</v>
       </c>
       <c r="T29" s="5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U29" s="2">
         <f t="shared" si="5"/>
-        <v>2.3781212841854936E-2</v>
+        <v>2.1466905187835419E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5083,37 +5169,37 @@
         <v>16</v>
       </c>
       <c r="C32" s="6">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0.30051813471502592</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H32" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="1"/>
-        <v>0.29015544041450775</v>
+        <v>0.29255319148936171</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K32" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>0.15025906735751296</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>186</v>
@@ -5123,7 +5209,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="3"/>
-        <v>0.13471502590673576</v>
+        <v>0.13829787234042554</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>32</v>
@@ -5133,17 +5219,17 @@
       </c>
       <c r="R32" s="2">
         <f t="shared" si="4"/>
-        <v>0.11398963730569948</v>
+        <v>0.11702127659574468</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>67</v>
       </c>
       <c r="T32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" s="2">
         <f t="shared" si="5"/>
-        <v>1.0362694300518135E-2</v>
+        <v>5.3191489361702126E-3</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5154,57 +5240,57 @@
         <v>16</v>
       </c>
       <c r="C33" s="6">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>0.25465838509316768</v>
+        <v>0.25552050473186122</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="1"/>
-        <v>0.24223602484472051</v>
+        <v>0.23974763406940064</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.2391304347826087</v>
+        <v>0.23659305993690852</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>186</v>
       </c>
       <c r="N33" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="3"/>
-        <v>0.20186335403726707</v>
+        <v>0.20189274447949526</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="Q33" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="4"/>
-        <v>5.2795031055900624E-2</v>
+        <v>5.6782334384858045E-2</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>67</v>
@@ -5214,7 +5300,7 @@
       </c>
       <c r="U33" s="2">
         <f t="shared" si="5"/>
-        <v>9.316770186335404E-3</v>
+        <v>9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,27 +5311,27 @@
         <v>16</v>
       </c>
       <c r="C34" s="6">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="6">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0.25943396226415094</v>
+        <v>0.25059665871121717</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>186</v>
       </c>
       <c r="H34" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="1"/>
-        <v>0.23584905660377359</v>
+        <v>0.24105011933174225</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>33</v>
@@ -5255,7 +5341,7 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>0.21226415094339623</v>
+        <v>0.21479713603818615</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>34</v>
@@ -5265,17 +5351,17 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="3"/>
-        <v>0.21226415094339623</v>
+        <v>0.21479713603818615</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q34" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="4"/>
-        <v>4.4811320754716978E-2</v>
+        <v>4.2959427207637228E-2</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>67</v>
@@ -5285,7 +5371,7 @@
       </c>
       <c r="U34" s="2">
         <f t="shared" si="5"/>
-        <v>3.5377358490566037E-2</v>
+        <v>3.5799522673031027E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5296,27 +5382,27 @@
         <v>16</v>
       </c>
       <c r="C35" s="6">
-        <v>1797</v>
+        <v>1767</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="6">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>0.35114079020589872</v>
+        <v>0.35653650254668928</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H35" s="6">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="1"/>
-        <v>0.22148024485253201</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>33</v>
@@ -5326,27 +5412,27 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>0.1636060100166945</v>
+        <v>0.166383701188455</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="N35" s="6">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="3"/>
-        <v>0.1580411797440178</v>
+        <v>0.16015846066779854</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>186</v>
       </c>
       <c r="Q35" s="5">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="4"/>
-        <v>7.5681691708402887E-2</v>
+        <v>7.5834748160724386E-2</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>67</v>
@@ -5356,7 +5442,7 @@
       </c>
       <c r="U35" s="2">
         <f t="shared" si="5"/>
-        <v>3.0050083472454091E-2</v>
+        <v>3.0560271646859084E-2</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5438,7 +5524,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="6">
-        <v>5078</v>
+        <v>5090</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>31</v>
@@ -5448,17 +5534,17 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>0.28574241827491137</v>
+        <v>0.28506876227897837</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="6">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="1"/>
-        <v>0.23375344623867664</v>
+        <v>0.23241650294695482</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>32</v>
@@ -5468,7 +5554,7 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>0.22213469870027569</v>
+        <v>0.22161100196463654</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>34</v>
@@ -5478,17 +5564,17 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="3"/>
-        <v>0.15892083497439938</v>
+        <v>0.15854616895874263</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>186</v>
       </c>
       <c r="Q37" s="5">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="4"/>
-        <v>8.7829854273335964E-2</v>
+        <v>9.0766208251473482E-2</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>67</v>
@@ -5498,7 +5584,7 @@
       </c>
       <c r="U37" s="2">
         <f t="shared" si="5"/>
-        <v>1.1618747538400946E-2</v>
+        <v>1.1591355599214145E-2</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -5586,11 +5672,11 @@
         <v>31</v>
       </c>
       <c r="E39" s="6">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>0.37631578947368421</v>
+        <v>0.37236842105263157</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>33</v>
@@ -5606,11 +5692,11 @@
         <v>32</v>
       </c>
       <c r="K39" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>0.13552631578947369</v>
+        <v>0.13421052631578947</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>34</v>
@@ -5626,11 +5712,11 @@
         <v>186</v>
       </c>
       <c r="Q39" s="5">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="4"/>
-        <v>0.10789473684210527</v>
+        <v>0.11315789473684211</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>67</v>
@@ -6919,17 +7005,17 @@
         <v>16</v>
       </c>
       <c r="C58" s="6">
-        <v>19955</v>
+        <v>19953</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E58" s="6">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
-        <v>0.33680781758957656</v>
+        <v>0.33679145993083748</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>32</v>
@@ -6939,17 +7025,17 @@
       </c>
       <c r="I58" s="2">
         <f t="shared" si="1"/>
-        <v>0.32678526685041343</v>
+        <v>0.32681802235252844</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K58" s="6">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>0.18842395389626659</v>
+        <v>0.1883927228988122</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>186</v>
@@ -6959,7 +7045,7 @@
       </c>
       <c r="O58" s="2">
         <f t="shared" si="3"/>
-        <v>0.10593836131295414</v>
+        <v>0.10594898010324262</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>33</v>
@@ -6969,7 +7055,7 @@
       </c>
       <c r="R58" s="2">
         <f t="shared" si="4"/>
-        <v>3.0418441493360059E-2</v>
+        <v>3.0421490502681302E-2</v>
       </c>
       <c r="S58" s="5" t="s">
         <v>67</v>
@@ -6979,7 +7065,7 @@
       </c>
       <c r="U58" s="2">
         <f t="shared" si="5"/>
-        <v>1.1626158857429215E-2</v>
+        <v>1.1627324211897961E-2</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7274,7 +7360,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="6">
-        <v>14830</v>
+        <v>14804</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>32</v>
@@ -7284,37 +7370,37 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
-        <v>0.27181389076196899</v>
+        <v>0.2722912726290192</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H63" s="6">
-        <v>3508</v>
+        <v>3484</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="1"/>
-        <v>0.23654753877275791</v>
+        <v>0.23534179951364495</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K63" s="6">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>0.21456507080242751</v>
+        <v>0.21487435828154552</v>
       </c>
       <c r="M63" s="5" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="6">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="3"/>
-        <v>0.15151719487525286</v>
+        <v>0.15171575249932451</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>186</v>
@@ -7324,7 +7410,7 @@
       </c>
       <c r="R63" s="2">
         <f t="shared" si="4"/>
-        <v>0.11314902225219151</v>
+        <v>0.1133477438530127</v>
       </c>
       <c r="S63" s="5" t="s">
         <v>67</v>
@@ -7334,7 +7420,7 @@
       </c>
       <c r="U63" s="2">
         <f t="shared" si="5"/>
-        <v>1.2407282535401213E-2</v>
+        <v>1.2429073223453121E-2</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7496,7 +7582,7 @@
         <v>56</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F66:F105" si="6">IF(C66=0,"0.0%",E66/C66)</f>
         <v>0.30270270270270272</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -7506,7 +7592,7 @@
         <v>35</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I66:I105" si="7">IF(C66=0,"0.0%",H66/C66)</f>
         <v>0.1891891891891892</v>
       </c>
       <c r="J66" s="5" t="s">
@@ -7516,7 +7602,7 @@
         <v>35</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L66:L105" si="8">IF(C66=0,"0.0%",K66/C66)</f>
         <v>0.1891891891891892</v>
       </c>
       <c r="M66" s="5" t="s">
@@ -7526,7 +7612,7 @@
         <v>32</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O66:O105" si="9">IF(C66=0,"0.0%",N66/C66)</f>
         <v>0.17297297297297298</v>
       </c>
       <c r="P66" s="5" t="s">
@@ -7536,7 +7622,7 @@
         <v>25</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="R66:R105" si="10">IF(C66=0,"0.0%",Q66/C66)</f>
         <v>0.13513513513513514</v>
       </c>
       <c r="S66" s="5" t="s">
@@ -7567,7 +7653,7 @@
         <v>235</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F115" si="6">IF(C67=0,"0.0%",E67/C67)</f>
+        <f t="shared" si="6"/>
         <v>0.31756756756756754</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -7577,7 +7663,7 @@
         <v>139</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I115" si="7">IF(C67=0,"0.0%",H67/C67)</f>
+        <f t="shared" si="7"/>
         <v>0.18783783783783783</v>
       </c>
       <c r="J67" s="5" t="s">
@@ -7587,7 +7673,7 @@
         <v>137</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" ref="L67:L115" si="8">IF(C67=0,"0.0%",K67/C67)</f>
+        <f t="shared" si="8"/>
         <v>0.18513513513513513</v>
       </c>
       <c r="M67" s="5" t="s">
@@ -7597,7 +7683,7 @@
         <v>109</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O115" si="9">IF(C67=0,"0.0%",N67/C67)</f>
+        <f t="shared" si="9"/>
         <v>0.14729729729729729</v>
       </c>
       <c r="P67" s="5" t="s">
@@ -7607,7 +7693,7 @@
         <v>102</v>
       </c>
       <c r="R67" s="2">
-        <f t="shared" ref="R67:R115" si="10">IF(C67=0,"0.0%",Q67/C67)</f>
+        <f t="shared" si="10"/>
         <v>0.13783783783783785</v>
       </c>
       <c r="S67" s="5" t="s">
@@ -7617,7 +7703,7 @@
         <v>18</v>
       </c>
       <c r="U67" s="2">
-        <f t="shared" ref="U67:U115" si="11">IF(C67=0,"0.0%",T67/C67)</f>
+        <f t="shared" ref="U67:U105" si="11">IF(C67=0,"0.0%",T67/C67)</f>
         <v>2.4324324324324326E-2</v>
       </c>
     </row>
@@ -7700,7 +7786,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="6">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>31</v>
@@ -7710,17 +7796,17 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" si="6"/>
-        <v>0.38174904942965782</v>
+        <v>0.38467432950191571</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H69" s="6">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="7"/>
-        <v>0.19467680608365018</v>
+        <v>0.18850574712643678</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>186</v>
@@ -7730,7 +7816,7 @@
       </c>
       <c r="L69" s="2">
         <f t="shared" si="8"/>
-        <v>0.13992395437262359</v>
+        <v>0.14099616858237549</v>
       </c>
       <c r="M69" s="5" t="s">
         <v>33</v>
@@ -7740,7 +7826,7 @@
       </c>
       <c r="O69" s="2">
         <f t="shared" si="9"/>
-        <v>0.13155893536121674</v>
+        <v>0.13256704980842912</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>34</v>
@@ -7750,7 +7836,7 @@
       </c>
       <c r="R69" s="2">
         <f t="shared" si="10"/>
-        <v>0.11711026615969582</v>
+        <v>0.11800766283524904</v>
       </c>
       <c r="S69" s="5" t="s">
         <v>67</v>
@@ -7760,7 +7846,7 @@
       </c>
       <c r="U69" s="2">
         <f t="shared" si="11"/>
-        <v>3.4980988593155897E-2</v>
+        <v>3.5249042145593872E-2</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,7 +8131,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="6">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>31</v>
@@ -8055,7 +8141,7 @@
       </c>
       <c r="F74" s="2">
         <f t="shared" si="6"/>
-        <v>0.30246913580246915</v>
+        <v>0.3081761006289308</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>33</v>
@@ -8065,7 +8151,7 @@
       </c>
       <c r="I74" s="2">
         <f t="shared" si="7"/>
-        <v>0.21604938271604937</v>
+        <v>0.22012578616352202</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>32</v>
@@ -8075,17 +8161,17 @@
       </c>
       <c r="L74" s="2">
         <f t="shared" si="8"/>
-        <v>0.18518518518518517</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>186</v>
       </c>
       <c r="N74" s="6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="9"/>
-        <v>0.15432098765432098</v>
+        <v>0.13836477987421383</v>
       </c>
       <c r="P74" s="5" t="s">
         <v>34</v>
@@ -8095,7 +8181,7 @@
       </c>
       <c r="R74" s="2">
         <f t="shared" si="10"/>
-        <v>0.1111111111111111</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="S74" s="5" t="s">
         <v>67</v>
@@ -8105,7 +8191,7 @@
       </c>
       <c r="U74" s="2">
         <f t="shared" si="11"/>
-        <v>3.0864197530864196E-2</v>
+        <v>3.1446540880503145E-2</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8258,7 +8344,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="6">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>186</v>
@@ -8268,7 +8354,7 @@
       </c>
       <c r="F77" s="2">
         <f t="shared" si="6"/>
-        <v>0.21862348178137653</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>33</v>
@@ -8278,7 +8364,7 @@
       </c>
       <c r="I77" s="2">
         <f t="shared" si="7"/>
-        <v>0.20647773279352227</v>
+        <v>0.20987654320987653</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>31</v>
@@ -8288,17 +8374,17 @@
       </c>
       <c r="L77" s="2">
         <f t="shared" si="8"/>
-        <v>0.20242914979757085</v>
+        <v>0.20576131687242799</v>
       </c>
       <c r="M77" s="5" t="s">
         <v>32</v>
       </c>
       <c r="N77" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="9"/>
-        <v>0.15789473684210525</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>34</v>
@@ -8308,7 +8394,7 @@
       </c>
       <c r="R77" s="2">
         <f t="shared" si="10"/>
-        <v>0.12550607287449392</v>
+        <v>0.12757201646090535</v>
       </c>
       <c r="S77" s="5" t="s">
         <v>67</v>
@@ -8318,7 +8404,7 @@
       </c>
       <c r="U77" s="2">
         <f t="shared" si="11"/>
-        <v>8.9068825910931168E-2</v>
+        <v>9.0534979423868317E-2</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8674,47 +8760,47 @@
         <v>16</v>
       </c>
       <c r="C83" s="6">
-        <v>37402</v>
+        <v>37323</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E83" s="6">
-        <v>10034</v>
+        <v>10020</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="6"/>
-        <v>0.2682744238276028</v>
+        <v>0.26846716501888918</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H83" s="6">
-        <v>9899</v>
+        <v>9883</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="7"/>
-        <v>0.26466499117694242</v>
+        <v>0.26479650617581652</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K83" s="6">
-        <v>8305</v>
+        <v>8296</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="8"/>
-        <v>0.22204694936099673</v>
+        <v>0.22227580848270503</v>
       </c>
       <c r="M83" s="5" t="s">
         <v>33</v>
       </c>
       <c r="N83" s="6">
-        <v>4810</v>
+        <v>4801</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="9"/>
-        <v>0.12860274851612213</v>
+        <v>0.1286338182889907</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>186</v>
@@ -8724,17 +8810,17 @@
       </c>
       <c r="R83" s="2">
         <f t="shared" si="10"/>
-        <v>0.10691941607400673</v>
+        <v>0.10714572783538301</v>
       </c>
       <c r="S83" s="5" t="s">
         <v>67</v>
       </c>
       <c r="T83" s="5">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="U83" s="2">
         <f t="shared" si="11"/>
-        <v>9.4914710443291805E-3</v>
+        <v>8.6809741982155769E-3</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8745,17 +8831,17 @@
         <v>16</v>
       </c>
       <c r="C84" s="6">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E84" s="6">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="6"/>
-        <v>0.2570856952317439</v>
+        <v>0.25683789192795198</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>31</v>
@@ -8765,7 +8851,7 @@
       </c>
       <c r="I84" s="2">
         <f t="shared" si="7"/>
-        <v>0.25441813937979324</v>
+        <v>0.25450300200133424</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>34</v>
@@ -8775,7 +8861,7 @@
       </c>
       <c r="L84" s="2">
         <f t="shared" si="8"/>
-        <v>0.17605868622874291</v>
+        <v>0.1761174116077385</v>
       </c>
       <c r="M84" s="5" t="s">
         <v>33</v>
@@ -8785,7 +8871,7 @@
       </c>
       <c r="O84" s="2">
         <f t="shared" si="9"/>
-        <v>0.13104368122707569</v>
+        <v>0.13108739159439625</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>186</v>
@@ -8795,7 +8881,7 @@
       </c>
       <c r="R84" s="2">
         <f t="shared" si="10"/>
-        <v>0.1247082360786929</v>
+        <v>0.1247498332221481</v>
       </c>
       <c r="S84" s="5" t="s">
         <v>67</v>
@@ -8805,7 +8891,7 @@
       </c>
       <c r="U84" s="2">
         <f t="shared" si="11"/>
-        <v>5.6685561853951315E-2</v>
+        <v>5.6704469646430951E-2</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8958,7 +9044,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="6">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>31</v>
@@ -8968,17 +9054,17 @@
       </c>
       <c r="F87" s="2">
         <f t="shared" si="6"/>
-        <v>0.3094170403587444</v>
+        <v>0.31506849315068491</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H87" s="6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="7"/>
-        <v>0.23766816143497757</v>
+        <v>0.23287671232876711</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>186</v>
@@ -8988,7 +9074,7 @@
       </c>
       <c r="L87" s="2">
         <f t="shared" si="8"/>
-        <v>0.17937219730941703</v>
+        <v>0.18264840182648401</v>
       </c>
       <c r="M87" s="5" t="s">
         <v>33</v>
@@ -8998,17 +9084,17 @@
       </c>
       <c r="O87" s="2">
         <f t="shared" si="9"/>
-        <v>0.13004484304932734</v>
+        <v>0.13242009132420091</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>34</v>
       </c>
       <c r="Q87" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="10"/>
-        <v>0.12556053811659193</v>
+        <v>0.11872146118721461</v>
       </c>
       <c r="S87" s="5" t="s">
         <v>67</v>
@@ -9018,7 +9104,7 @@
       </c>
       <c r="U87" s="2">
         <f t="shared" si="11"/>
-        <v>1.7937219730941704E-2</v>
+        <v>1.8264840182648401E-2</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -9658,27 +9744,27 @@
         <v>16</v>
       </c>
       <c r="C97" s="6">
-        <v>2941</v>
+        <v>2903</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E97" s="6">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" si="6"/>
-        <v>0.35668140088405303</v>
+        <v>0.36169479848432656</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H97" s="6">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" si="7"/>
-        <v>0.19585175110506631</v>
+        <v>0.19807096107475025</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>32</v>
@@ -9688,37 +9774,37 @@
       </c>
       <c r="L97" s="2">
         <f t="shared" si="8"/>
-        <v>0.15606936416184972</v>
+        <v>0.15811229762314846</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="N97" s="6">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="9"/>
-        <v>0.14246854811288678</v>
+        <v>0.13468825353083017</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="Q97" s="5">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="10"/>
-        <v>0.13328799727983678</v>
+        <v>0.13399931105752669</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>67</v>
       </c>
       <c r="T97" s="5">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="U97" s="2">
         <f t="shared" si="11"/>
-        <v>1.5640938456307377E-2</v>
+        <v>1.3434378229417844E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -10306,7 +10392,7 @@
         <v>2812</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F67:F130" si="12">IF(C106=0,"0.0%",E106/C106)</f>
         <v>0.24539663146871454</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -10316,7 +10402,7 @@
         <v>2688</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I67:I130" si="13">IF(C106=0,"0.0%",H106/C106)</f>
         <v>0.23457544288332316</v>
       </c>
       <c r="J106" s="5" t="s">
@@ -10326,7 +10412,7 @@
         <v>2438</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L67:L130" si="14">IF(C106=0,"0.0%",K106/C106)</f>
         <v>0.21275853041277598</v>
       </c>
       <c r="M106" s="5" t="s">
@@ -10336,7 +10422,7 @@
         <v>1126</v>
       </c>
       <c r="O106" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O67:O130" si="15">IF(C106=0,"0.0%",N106/C106)</f>
         <v>9.8263373767344439E-2</v>
       </c>
       <c r="P106" s="5" t="s">
@@ -10346,7 +10432,7 @@
         <v>840</v>
       </c>
       <c r="R106" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="R67:R130" si="16">IF(C106=0,"0.0%",Q106/C106)</f>
         <v>7.3304825901038484E-2</v>
       </c>
       <c r="S106" s="5" t="s">
@@ -10356,7 +10442,7 @@
         <v>1555</v>
       </c>
       <c r="U106" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="U67:U130" si="17">IF(C106=0,"0.0%",T106/C106)</f>
         <v>0.13570119556680338</v>
       </c>
     </row>
@@ -10377,7 +10463,7 @@
         <v>2813</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.25260416666666669</v>
       </c>
       <c r="G107" s="5" t="s">
@@ -10387,7 +10473,7 @@
         <v>2605</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.23392600574712644</v>
       </c>
       <c r="J107" s="5" t="s">
@@ -10397,7 +10483,7 @@
         <v>2464</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.22126436781609196</v>
       </c>
       <c r="M107" s="5" t="s">
@@ -10407,7 +10493,7 @@
         <v>1020</v>
       </c>
       <c r="O107" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.1594827586206892E-2</v>
       </c>
       <c r="P107" s="5" t="s">
@@ -10417,7 +10503,7 @@
         <v>903</v>
       </c>
       <c r="R107" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.1088362068965511E-2</v>
       </c>
       <c r="S107" s="5" t="s">
@@ -10427,7 +10513,7 @@
         <v>1331</v>
       </c>
       <c r="U107" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.11952227011494253</v>
       </c>
     </row>
@@ -10448,7 +10534,7 @@
         <v>5973</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.31416999789606564</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -10458,7 +10544,7 @@
         <v>4053</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.21318114874815905</v>
       </c>
       <c r="J108" s="5" t="s">
@@ -10468,7 +10554,7 @@
         <v>3616</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.19019566589522408</v>
       </c>
       <c r="M108" s="5" t="s">
@@ -10478,7 +10564,7 @@
         <v>1816</v>
       </c>
       <c r="O108" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.5518619819061651E-2</v>
       </c>
       <c r="P108" s="5" t="s">
@@ -10488,7 +10574,7 @@
         <v>1264</v>
       </c>
       <c r="R108" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.6484325689038504E-2</v>
       </c>
       <c r="S108" s="5" t="s">
@@ -10498,7 +10584,7 @@
         <v>2290</v>
       </c>
       <c r="U108" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.12045024195245109</v>
       </c>
     </row>
@@ -10519,7 +10605,7 @@
         <v>1561</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.29155771385879714</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -10529,7 +10615,7 @@
         <v>1094</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.20433320881583864</v>
       </c>
       <c r="J109" s="5" t="s">
@@ -10539,7 +10625,7 @@
         <v>909</v>
       </c>
       <c r="L109" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.16977960403436682</v>
       </c>
       <c r="M109" s="5" t="s">
@@ -10549,7 +10635,7 @@
         <v>566</v>
       </c>
       <c r="O109" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.1057153530070975</v>
       </c>
       <c r="P109" s="5" t="s">
@@ -10559,7 +10645,7 @@
         <v>395</v>
       </c>
       <c r="R109" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7.3776615614493835E-2</v>
       </c>
       <c r="S109" s="5" t="s">
@@ -10569,7 +10655,7 @@
         <v>829</v>
       </c>
       <c r="U109" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.15483750466940605</v>
       </c>
     </row>
@@ -10590,7 +10676,7 @@
         <v>6598</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.27099848030558182</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -10600,7 +10686,7 @@
         <v>5815</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.23883846059062719</v>
       </c>
       <c r="J110" s="5" t="s">
@@ -10610,7 +10696,7 @@
         <v>4274</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17554524171355815</v>
       </c>
       <c r="M110" s="5" t="s">
@@ -10620,7 +10706,7 @@
         <v>3322</v>
       </c>
       <c r="O110" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.13644391506140388</v>
       </c>
       <c r="P110" s="5" t="s">
@@ -10630,7 +10716,7 @@
         <v>1685</v>
       </c>
       <c r="R110" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.9207705261428512E-2</v>
       </c>
       <c r="S110" s="5" t="s">
@@ -10640,7 +10726,7 @@
         <v>2653</v>
       </c>
       <c r="U110" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.1089661970674005</v>
       </c>
     </row>
@@ -10661,7 +10747,7 @@
         <v>21604</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.25709253617669459</v>
       </c>
       <c r="G111" s="5" t="s">
@@ -10671,7 +10757,7 @@
         <v>20523</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.24422838918507236</v>
       </c>
       <c r="J111" s="5" t="s">
@@ -10681,7 +10767,7 @@
         <v>16698</v>
       </c>
       <c r="L111" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.19871001523229245</v>
       </c>
       <c r="M111" s="5" t="s">
@@ -10691,7 +10777,7 @@
         <v>7357</v>
       </c>
       <c r="O111" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>8.7549980959634427E-2</v>
       </c>
       <c r="P111" s="5" t="s">
@@ -10701,7 +10787,7 @@
         <v>7243</v>
       </c>
       <c r="R111" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.6193354912414324E-2</v>
       </c>
       <c r="S111" s="5" t="s">
@@ -10711,7 +10797,7 @@
         <v>10607</v>
       </c>
       <c r="U111" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.12622572353389186</v>
       </c>
     </row>
@@ -10732,7 +10818,7 @@
         <v>8465</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.24023043959474416</v>
       </c>
       <c r="G112" s="5" t="s">
@@ -10742,7 +10828,7 @@
         <v>8632</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.24496977608763515</v>
       </c>
       <c r="J112" s="5" t="s">
@@ -10752,7 +10838,7 @@
         <v>7852</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.22283395294718619</v>
       </c>
       <c r="M112" s="5" t="s">
@@ -10762,7 +10848,7 @@
         <v>3171</v>
       </c>
       <c r="O112" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>8.9990634844055964E-2</v>
       </c>
       <c r="P112" s="5" t="s">
@@ -10772,7 +10858,7 @@
         <v>2862</v>
       </c>
       <c r="R112" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.1221443369185797E-2</v>
       </c>
       <c r="S112" s="5" t="s">
@@ -10782,7 +10868,7 @@
         <v>4255</v>
       </c>
       <c r="U112" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.12075375315719272</v>
       </c>
     </row>
@@ -10803,7 +10889,7 @@
         <v>17936</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.26606144215507394</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -10813,7 +10899,7 @@
         <v>15331</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.22741904380460742</v>
       </c>
       <c r="J113" s="5" t="s">
@@ -10823,7 +10909,7 @@
         <v>13743</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.20386275644163587</v>
       </c>
       <c r="M113" s="5" t="s">
@@ -10833,7 +10919,7 @@
         <v>6071</v>
       </c>
       <c r="O113" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.0056813967632363E-2</v>
       </c>
       <c r="P113" s="5" t="s">
@@ -10843,7 +10929,7 @@
         <v>5930</v>
       </c>
       <c r="R113" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.7965229258451627E-2</v>
       </c>
       <c r="S113" s="5" t="s">
@@ -10853,7 +10939,7 @@
         <v>8402</v>
       </c>
       <c r="U113" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.12463471437259875</v>
       </c>
     </row>
@@ -10874,7 +10960,7 @@
         <v>8912</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.29926124916051039</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -10884,7 +10970,7 @@
         <v>6758</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.22693082605775688</v>
       </c>
       <c r="J114" s="5" t="s">
@@ -10894,7 +10980,7 @@
         <v>5176</v>
       </c>
       <c r="L114" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17380792478173271</v>
       </c>
       <c r="M114" s="5" t="s">
@@ -10904,7 +10990,7 @@
         <v>2929</v>
       </c>
       <c r="O114" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.8354600402955003E-2</v>
       </c>
       <c r="P114" s="5" t="s">
@@ -10914,7 +11000,7 @@
         <v>2246</v>
       </c>
       <c r="R114" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7.5419744795164542E-2</v>
       </c>
       <c r="S114" s="5" t="s">
@@ -10924,7 +11010,7 @@
         <v>3759</v>
       </c>
       <c r="U114" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.12622565480188044</v>
       </c>
     </row>
@@ -10945,7 +11031,7 @@
         <v>2420</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.27338454586534117</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -10955,7 +11041,7 @@
         <v>2188</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.24717577948486219</v>
       </c>
       <c r="J115" s="5" t="s">
@@ -10965,7 +11051,7 @@
         <v>1626</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.18368730230456395</v>
       </c>
       <c r="M115" s="5" t="s">
@@ -10975,7 +11061,7 @@
         <v>838</v>
       </c>
       <c r="O115" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.4667871667419787E-2</v>
       </c>
       <c r="P115" s="5" t="s">
@@ -10985,7 +11071,7 @@
         <v>724</v>
       </c>
       <c r="R115" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.1789426118391323E-2</v>
       </c>
       <c r="S115" s="5" t="s">
@@ -10995,12 +11081,1142 @@
         <v>1056</v>
       </c>
       <c r="U115" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.11929507455942159</v>
       </c>
     </row>
+    <row r="116" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>32510</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C116" s="6">
+        <v>216</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" s="6">
+        <v>96</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="12"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="6">
+        <v>39</v>
+      </c>
+      <c r="I116" s="2">
+        <f t="shared" si="13"/>
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K116" s="6">
+        <v>33</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" si="14"/>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N116" s="6">
+        <v>19</v>
+      </c>
+      <c r="O116" s="2">
+        <f t="shared" si="15"/>
+        <v>8.7962962962962965E-2</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>19</v>
+      </c>
+      <c r="R116" s="2">
+        <f t="shared" si="16"/>
+        <v>8.7962962962962965E-2</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T116" s="5">
+        <v>10</v>
+      </c>
+      <c r="U116" s="2">
+        <f t="shared" si="17"/>
+        <v>4.6296296296296294E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>32001</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="6">
+        <v>91</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" s="6">
+        <v>31</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="12"/>
+        <v>0.34065934065934067</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="6">
+        <v>18</v>
+      </c>
+      <c r="I117" s="2">
+        <f t="shared" si="13"/>
+        <v>0.19780219780219779</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K117" s="6">
+        <v>13</v>
+      </c>
+      <c r="L117" s="2">
+        <f t="shared" si="14"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N117" s="6">
+        <v>12</v>
+      </c>
+      <c r="O117" s="2">
+        <f t="shared" si="15"/>
+        <v>0.13186813186813187</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>9</v>
+      </c>
+      <c r="R117" s="2">
+        <f t="shared" si="16"/>
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="S117" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T117" s="5">
+        <v>8</v>
+      </c>
+      <c r="U117" s="2">
+        <f t="shared" si="17"/>
+        <v>8.7912087912087919E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>32003</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" s="6">
+        <v>10807</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="6">
+        <v>5293</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="12"/>
+        <v>0.48977514573887293</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" s="6">
+        <v>2623</v>
+      </c>
+      <c r="I118" s="2">
+        <f t="shared" si="13"/>
+        <v>0.2427130563523642</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="6">
+        <v>1297</v>
+      </c>
+      <c r="L118" s="2">
+        <f t="shared" si="14"/>
+        <v>0.12001480521883964</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N118" s="6">
+        <v>917</v>
+      </c>
+      <c r="O118" s="2">
+        <f t="shared" si="15"/>
+        <v>8.485241047469233E-2</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>442</v>
+      </c>
+      <c r="R118" s="2">
+        <f t="shared" si="16"/>
+        <v>4.0899417044508189E-2</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T118" s="5">
+        <v>235</v>
+      </c>
+      <c r="U118" s="2">
+        <f t="shared" si="17"/>
+        <v>2.1745165170722679E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>32005</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="6">
+        <v>247</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="6">
+        <v>76</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="12"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="6">
+        <v>79</v>
+      </c>
+      <c r="I119" s="2">
+        <f t="shared" si="13"/>
+        <v>0.31983805668016196</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K119" s="6">
+        <v>38</v>
+      </c>
+      <c r="L119" s="2">
+        <f t="shared" si="14"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N119" s="6">
+        <v>26</v>
+      </c>
+      <c r="O119" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="P119" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>15</v>
+      </c>
+      <c r="R119" s="2">
+        <f t="shared" si="16"/>
+        <v>6.0728744939271252E-2</v>
+      </c>
+      <c r="S119" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T119" s="5">
+        <v>13</v>
+      </c>
+      <c r="U119" s="2">
+        <f t="shared" si="17"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>32007</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="6">
+        <v>107</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" s="6">
+        <v>42</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="12"/>
+        <v>0.3925233644859813</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="6">
+        <v>23</v>
+      </c>
+      <c r="I120" s="2">
+        <f t="shared" si="13"/>
+        <v>0.21495327102803738</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K120" s="6">
+        <v>17</v>
+      </c>
+      <c r="L120" s="2">
+        <f t="shared" si="14"/>
+        <v>0.15887850467289719</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N120" s="6">
+        <v>15</v>
+      </c>
+      <c r="O120" s="2">
+        <f t="shared" si="15"/>
+        <v>0.14018691588785046</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>9</v>
+      </c>
+      <c r="R120" s="2">
+        <f t="shared" si="16"/>
+        <v>8.4112149532710276E-2</v>
+      </c>
+      <c r="S120" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T120" s="5">
+        <v>1</v>
+      </c>
+      <c r="U120" s="2">
+        <f t="shared" si="17"/>
+        <v>9.3457943925233638E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>32009</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="6">
+        <v>19</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="6">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="12"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="6">
+        <v>4</v>
+      </c>
+      <c r="I121" s="2">
+        <f t="shared" si="13"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K121" s="6">
+        <v>2</v>
+      </c>
+      <c r="L121" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N121" s="6">
+        <v>2</v>
+      </c>
+      <c r="O121" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="Q121" s="5"/>
+    </row>
+    <row r="122" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>32011</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="6">
+        <v>18</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" s="6">
+        <v>14</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="12"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="6">
+        <v>4</v>
+      </c>
+      <c r="I122" s="2">
+        <f t="shared" si="13"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q122" s="5"/>
+    </row>
+    <row r="123" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>32013</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" s="6">
+        <v>87</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="6">
+        <v>40</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="12"/>
+        <v>0.45977011494252873</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="6">
+        <v>18</v>
+      </c>
+      <c r="I123" s="2">
+        <f t="shared" si="13"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K123" s="6">
+        <v>9</v>
+      </c>
+      <c r="L123" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N123" s="6">
+        <v>8</v>
+      </c>
+      <c r="O123" s="2">
+        <f t="shared" si="15"/>
+        <v>9.1954022988505746E-2</v>
+      </c>
+      <c r="P123" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q123" s="5">
+        <v>5</v>
+      </c>
+      <c r="R123" s="2">
+        <f t="shared" si="16"/>
+        <v>5.7471264367816091E-2</v>
+      </c>
+      <c r="S123" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T123" s="5">
+        <v>7</v>
+      </c>
+      <c r="U123" s="2">
+        <f t="shared" si="17"/>
+        <v>8.0459770114942528E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>32015</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="6">
+        <v>62</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="6">
+        <v>26</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="12"/>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H124" s="6">
+        <v>15</v>
+      </c>
+      <c r="I124" s="2">
+        <f t="shared" si="13"/>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K124" s="6">
+        <v>7</v>
+      </c>
+      <c r="L124" s="2">
+        <f t="shared" si="14"/>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N124" s="6">
+        <v>6</v>
+      </c>
+      <c r="O124" s="2">
+        <f t="shared" si="15"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q124" s="5">
+        <v>5</v>
+      </c>
+      <c r="R124" s="2">
+        <f t="shared" si="16"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T124" s="5">
+        <v>3</v>
+      </c>
+      <c r="U124" s="2">
+        <f t="shared" si="17"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>32017</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="6">
+        <v>57</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="6">
+        <v>24</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="12"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="6">
+        <v>25</v>
+      </c>
+      <c r="I125" s="2">
+        <f t="shared" si="13"/>
+        <v>0.43859649122807015</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K125" s="6">
+        <v>6</v>
+      </c>
+      <c r="L125" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N125" s="6">
+        <v>2</v>
+      </c>
+      <c r="O125" s="2">
+        <f t="shared" si="15"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="Q125" s="5"/>
+    </row>
+    <row r="126" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>32019</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="6">
+        <v>171</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="6">
+        <v>58</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="12"/>
+        <v>0.33918128654970758</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" s="6">
+        <v>43</v>
+      </c>
+      <c r="I126" s="2">
+        <f t="shared" si="13"/>
+        <v>0.25146198830409355</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K126" s="6">
+        <v>20</v>
+      </c>
+      <c r="L126" s="2">
+        <f t="shared" si="14"/>
+        <v>0.11695906432748537</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N126" s="6">
+        <v>19</v>
+      </c>
+      <c r="O126" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P126" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q126" s="5">
+        <v>17</v>
+      </c>
+      <c r="R126" s="2">
+        <f t="shared" si="16"/>
+        <v>9.9415204678362568E-2</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T126" s="5">
+        <v>14</v>
+      </c>
+      <c r="U126" s="2">
+        <f t="shared" si="17"/>
+        <v>8.1871345029239762E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>32021</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" s="6">
+        <v>56</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" s="6">
+        <v>13</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="12"/>
+        <v>0.23214285714285715</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H127" s="6">
+        <v>16</v>
+      </c>
+      <c r="I127" s="2">
+        <f t="shared" si="13"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="6">
+        <v>15</v>
+      </c>
+      <c r="L127" s="2">
+        <f t="shared" si="14"/>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N127" s="6">
+        <v>5</v>
+      </c>
+      <c r="O127" s="2">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="P127" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q127" s="5">
+        <v>4</v>
+      </c>
+      <c r="R127" s="2">
+        <f t="shared" si="16"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T127" s="5">
+        <v>3</v>
+      </c>
+      <c r="U127" s="2">
+        <f t="shared" si="17"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>32023</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" s="6">
+        <v>164</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="6">
+        <v>41</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="6">
+        <v>47</v>
+      </c>
+      <c r="I128" s="2">
+        <f t="shared" si="13"/>
+        <v>0.28658536585365851</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K128" s="6">
+        <v>38</v>
+      </c>
+      <c r="L128" s="2">
+        <f t="shared" si="14"/>
+        <v>0.23170731707317074</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N128" s="6">
+        <v>26</v>
+      </c>
+      <c r="O128" s="2">
+        <f t="shared" si="15"/>
+        <v>0.15853658536585366</v>
+      </c>
+      <c r="P128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q128" s="5">
+        <v>7</v>
+      </c>
+      <c r="R128" s="2">
+        <f t="shared" si="16"/>
+        <v>4.2682926829268296E-2</v>
+      </c>
+      <c r="S128" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T128" s="5">
+        <v>5</v>
+      </c>
+      <c r="U128" s="2">
+        <f t="shared" si="17"/>
+        <v>3.048780487804878E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>32027</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="6">
+        <v>69</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="6">
+        <v>9</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="12"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="6">
+        <v>21</v>
+      </c>
+      <c r="I129" s="2">
+        <f t="shared" si="13"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K129" s="6">
+        <v>13</v>
+      </c>
+      <c r="L129" s="2">
+        <f t="shared" si="14"/>
+        <v>0.18840579710144928</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N129" s="6">
+        <v>12</v>
+      </c>
+      <c r="O129" s="2">
+        <f t="shared" si="15"/>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="P129" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q129" s="5">
+        <v>9</v>
+      </c>
+      <c r="R129" s="2">
+        <f t="shared" si="16"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="S129" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T129" s="5">
+        <v>5</v>
+      </c>
+      <c r="U129" s="2">
+        <f t="shared" si="17"/>
+        <v>7.2463768115942032E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>32029</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="6">
+        <v>74</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="6">
+        <v>25</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="12"/>
+        <v>0.33783783783783783</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" s="6">
+        <v>15</v>
+      </c>
+      <c r="I130" s="2">
+        <f t="shared" si="13"/>
+        <v>0.20270270270270271</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K130" s="6">
+        <v>11</v>
+      </c>
+      <c r="L130" s="2">
+        <f t="shared" si="14"/>
+        <v>0.14864864864864866</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N130" s="6">
+        <v>9</v>
+      </c>
+      <c r="O130" s="2">
+        <f t="shared" si="15"/>
+        <v>0.12162162162162163</v>
+      </c>
+      <c r="P130" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q130" s="5">
+        <v>7</v>
+      </c>
+      <c r="R130" s="2">
+        <f t="shared" si="16"/>
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="S130" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T130" s="5">
+        <v>7</v>
+      </c>
+      <c r="U130" s="2">
+        <f t="shared" si="17"/>
+        <v>9.45945945945946E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>32031</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="6">
+        <v>2170</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" s="6">
+        <v>959</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" ref="F131:F132" si="18">IF(C131=0,"0.0%",E131/C131)</f>
+        <v>0.44193548387096776</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" s="6">
+        <v>390</v>
+      </c>
+      <c r="I131" s="2">
+        <f t="shared" ref="I131:I132" si="19">IF(C131=0,"0.0%",H131/C131)</f>
+        <v>0.17972350230414746</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K131" s="6">
+        <v>354</v>
+      </c>
+      <c r="L131" s="2">
+        <f t="shared" ref="L131:L132" si="20">IF(C131=0,"0.0%",K131/C131)</f>
+        <v>0.1631336405529954</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N131" s="6">
+        <v>220</v>
+      </c>
+      <c r="O131" s="2">
+        <f t="shared" ref="O131:O132" si="21">IF(C131=0,"0.0%",N131/C131)</f>
+        <v>0.10138248847926268</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q131" s="5">
+        <v>165</v>
+      </c>
+      <c r="R131" s="2">
+        <f t="shared" ref="R131:R132" si="22">IF(C131=0,"0.0%",Q131/C131)</f>
+        <v>7.6036866359447008E-2</v>
+      </c>
+      <c r="S131" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T131" s="5">
+        <v>82</v>
+      </c>
+      <c r="U131" s="2">
+        <f t="shared" ref="U131:U132" si="23">IF(C131=0,"0.0%",T131/C131)</f>
+        <v>3.7788018433179721E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>32033</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" s="6">
+        <v>76</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="6">
+        <v>30</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="18"/>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" s="6">
+        <v>29</v>
+      </c>
+      <c r="I132" s="2">
+        <f t="shared" si="19"/>
+        <v>0.38157894736842107</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K132" s="6">
+        <v>5</v>
+      </c>
+      <c r="L132" s="2">
+        <f t="shared" si="20"/>
+        <v>6.5789473684210523E-2</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N132" s="6">
+        <v>5</v>
+      </c>
+      <c r="O132" s="2">
+        <f t="shared" si="21"/>
+        <v>6.5789473684210523E-2</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q132" s="5">
+        <v>4</v>
+      </c>
+      <c r="R132" s="2">
+        <f t="shared" si="22"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="S132" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T132" s="5">
+        <v>3</v>
+      </c>
+      <c r="U132" s="2">
+        <f t="shared" si="23"/>
+        <v>3.9473684210526314E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U115" xr:uid="{E2841D87-E559-4119-ABBE-ACD3B1CF54F9}"/>
+  <autoFilter ref="A1:U132" xr:uid="{E2841D87-E559-4119-ABBE-ACD3B1CF54F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11008,7 +12224,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F35F74-FDAD-46CB-85ED-D8ECAAB7193A}">
-  <dimension ref="A1:DA117"/>
+  <dimension ref="A1:DA135"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11359,13 +12575,13 @@
         <v>16</v>
       </c>
       <c r="C2" s="6">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="6">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -11454,13 +12670,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="6">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="6">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
@@ -11549,13 +12765,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="6">
-        <v>437</v>
+        <v>367</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
@@ -12024,7 +13240,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="6">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -12039,16 +13255,16 @@
         <v>24</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="6">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="6">
-        <v>19</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="N9" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>19</v>
@@ -12499,25 +13715,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="6">
-        <v>6934</v>
+        <v>6874</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="6">
-        <v>2168</v>
+        <v>2128</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="6">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="6">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>20</v>
@@ -12529,7 +13745,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="5">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>28</v>
@@ -13164,7 +14380,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="6">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
@@ -13188,7 +14404,7 @@
         <v>18</v>
       </c>
       <c r="N21" s="6">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>19</v>
@@ -13449,7 +14665,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="6">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
@@ -13461,7 +14677,7 @@
         <v>21</v>
       </c>
       <c r="H24" s="6">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>18</v>
@@ -13473,7 +14689,7 @@
         <v>20</v>
       </c>
       <c r="N24" s="6">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>19</v>
@@ -13639,7 +14855,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="6">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
@@ -13669,7 +14885,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S26" s="5" t="s">
         <v>28</v>
@@ -14019,25 +15235,25 @@
         <v>16</v>
       </c>
       <c r="C30" s="6">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="6">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="6">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="6">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>21</v>
@@ -14064,13 +15280,13 @@
         <v>10</v>
       </c>
       <c r="Y30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>4</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="AC30" s="5">
         <v>0</v>
@@ -14304,25 +15520,25 @@
         <v>16</v>
       </c>
       <c r="C33" s="6">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="6">
+        <v>56</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="6">
-        <v>58</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="H33" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>21</v>
@@ -14343,37 +15559,37 @@
         <v>1</v>
       </c>
       <c r="V33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="W33" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="AL33" s="5">
         <v>0</v>
@@ -14399,37 +15615,37 @@
         <v>16</v>
       </c>
       <c r="C34" s="6">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="N34" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>23</v>
@@ -14494,19 +15710,19 @@
         <v>16</v>
       </c>
       <c r="C35" s="6">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="6">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>20</v>
@@ -14524,7 +15740,7 @@
         <v>18</v>
       </c>
       <c r="Q35" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>28</v>
@@ -14589,19 +15805,19 @@
         <v>16</v>
       </c>
       <c r="C36" s="6">
-        <v>1797</v>
+        <v>1767</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="6">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="6">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>20</v>
@@ -14613,13 +15829,13 @@
         <v>19</v>
       </c>
       <c r="N36" s="6">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>21</v>
       </c>
       <c r="Q36" s="5">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>22</v>
@@ -14779,7 +15995,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="6">
-        <v>5078</v>
+        <v>5090</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
@@ -14791,7 +16007,7 @@
         <v>20</v>
       </c>
       <c r="H38" s="6">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>18</v>
@@ -14809,7 +16025,7 @@
         <v>21</v>
       </c>
       <c r="Q38" s="5">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>22</v>
@@ -14975,7 +16191,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="6">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>20</v>
@@ -14987,7 +16203,7 @@
         <v>18</v>
       </c>
       <c r="K40" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>19</v>
@@ -14999,7 +16215,7 @@
         <v>21</v>
       </c>
       <c r="Q40" s="5">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>28</v>
@@ -16774,13 +17990,13 @@
         <v>16</v>
       </c>
       <c r="C59" s="6">
-        <v>19955</v>
+        <v>19953</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="6">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>18</v>
@@ -16792,7 +18008,7 @@
         <v>17</v>
       </c>
       <c r="K59" s="6">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>21</v>
@@ -17249,7 +18465,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="6">
-        <v>14830</v>
+        <v>14804</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>18</v>
@@ -17261,19 +18477,19 @@
         <v>17</v>
       </c>
       <c r="H64" s="6">
-        <v>3508</v>
+        <v>3484</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K64" s="6">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N64" s="6">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>21</v>
@@ -17819,7 +19035,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="6">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>17</v>
@@ -17831,7 +19047,7 @@
         <v>18</v>
       </c>
       <c r="H70" s="6">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>21</v>
@@ -18294,7 +19510,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="6">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>17</v>
@@ -18318,7 +19534,7 @@
         <v>21</v>
       </c>
       <c r="N75" s="6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>19</v>
@@ -18579,7 +19795,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="6">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>21</v>
@@ -18603,7 +19819,7 @@
         <v>18</v>
       </c>
       <c r="N78" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P78" s="5" t="s">
         <v>19</v>
@@ -19149,31 +20365,31 @@
         <v>16</v>
       </c>
       <c r="C84" s="6">
-        <v>37402</v>
+        <v>37323</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="6">
-        <v>10034</v>
+        <v>10020</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H84" s="6">
-        <v>9899</v>
+        <v>9883</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K84" s="6">
-        <v>8305</v>
+        <v>8296</v>
       </c>
       <c r="M84" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N84" s="6">
-        <v>4810</v>
+        <v>4801</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>21</v>
@@ -19227,7 +20443,7 @@
         <v>29</v>
       </c>
       <c r="AO84" s="5">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="AQ84" s="5" t="s">
         <v>30</v>
@@ -19244,13 +20460,13 @@
         <v>16</v>
       </c>
       <c r="C85" s="6">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="6">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>17</v>
@@ -19529,7 +20745,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="6">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>17</v>
@@ -19541,7 +20757,7 @@
         <v>18</v>
       </c>
       <c r="H88" s="6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>21</v>
@@ -19559,7 +20775,7 @@
         <v>19</v>
       </c>
       <c r="Q88" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S88" s="5" t="s">
         <v>22</v>
@@ -20479,19 +21695,19 @@
         <v>16</v>
       </c>
       <c r="C98" s="6">
-        <v>2941</v>
+        <v>2903</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E98" s="6">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H98" s="6">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>18</v>
@@ -20500,16 +21716,16 @@
         <v>459</v>
       </c>
       <c r="M98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N98" s="6">
+        <v>391</v>
+      </c>
+      <c r="P98" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="6">
-        <v>419</v>
-      </c>
-      <c r="P98" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="Q98" s="5">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>22</v>
@@ -20563,7 +21779,7 @@
         <v>30</v>
       </c>
       <c r="AR98" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -23688,6 +24904,1500 @@
         <v>209</v>
       </c>
       <c r="CZ117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" s="6">
+        <v>14491</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="6">
+        <v>6788</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" s="6">
+        <v>2927</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="6">
+        <v>2073</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N118" s="6">
+        <v>1406</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>682</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T118" s="5">
+        <v>603</v>
+      </c>
+      <c r="V118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W118" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y118" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z118" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB118" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC118" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF118" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH118" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI118" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK118" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL118" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>32510</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="6">
+        <v>216</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="6">
+        <v>96</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="6">
+        <v>39</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" s="6">
+        <v>33</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N119" s="6">
+        <v>19</v>
+      </c>
+      <c r="P119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>19</v>
+      </c>
+      <c r="S119" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T119" s="5">
+        <v>10</v>
+      </c>
+      <c r="V119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W119" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z119" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC119" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF119" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH119" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI119" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK119" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>32001</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="6">
+        <v>91</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="6">
+        <v>31</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="6">
+        <v>18</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K120" s="6">
+        <v>13</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N120" s="6">
+        <v>12</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>9</v>
+      </c>
+      <c r="S120" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T120" s="5">
+        <v>8</v>
+      </c>
+      <c r="V120" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W120" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH120" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK120" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>32003</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="6">
+        <v>10807</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="6">
+        <v>5293</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="6">
+        <v>2623</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="6">
+        <v>1297</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N121" s="6">
+        <v>917</v>
+      </c>
+      <c r="P121" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q121" s="5">
+        <v>442</v>
+      </c>
+      <c r="S121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T121" s="5">
+        <v>230</v>
+      </c>
+      <c r="V121" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W121" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y121" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z121" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC121" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE121" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF121" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH121" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI121" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL121" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>32005</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="6">
+        <v>247</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="6">
+        <v>76</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="6">
+        <v>79</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" s="6">
+        <v>38</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N122" s="6">
+        <v>26</v>
+      </c>
+      <c r="P122" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q122" s="5">
+        <v>15</v>
+      </c>
+      <c r="S122" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T122" s="5">
+        <v>13</v>
+      </c>
+      <c r="V122" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W122" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y122" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z122" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC122" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF122" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH122" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI122" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK122" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>32007</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" s="6">
+        <v>107</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="6">
+        <v>42</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="6">
+        <v>23</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" s="6">
+        <v>17</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N123" s="6">
+        <v>15</v>
+      </c>
+      <c r="P123" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q123" s="5">
+        <v>9</v>
+      </c>
+      <c r="S123" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T123" s="5">
+        <v>0</v>
+      </c>
+      <c r="V123" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W123" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z123" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC123" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF123" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH123" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI123" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK123" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL123" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>32009</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="6">
+        <v>19</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="6">
+        <v>11</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="6">
+        <v>4</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="6">
+        <v>2</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N124" s="6">
+        <v>2</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q124" s="5">
+        <v>0</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T124" s="5">
+        <v>0</v>
+      </c>
+      <c r="V124" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W124" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z124" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC124" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF124" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH124" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI124" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>32011</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="6">
+        <v>18</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="6">
+        <v>14</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="6">
+        <v>4</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" s="6">
+        <v>0</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N125" s="6">
+        <v>0</v>
+      </c>
+      <c r="P125" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q125" s="5">
+        <v>0</v>
+      </c>
+      <c r="S125" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T125" s="5">
+        <v>0</v>
+      </c>
+      <c r="V125" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W125" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z125" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC125" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF125" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI125" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK125" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>32013</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="6">
+        <v>87</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="6">
+        <v>40</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="6">
+        <v>18</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="6">
+        <v>9</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="6">
+        <v>8</v>
+      </c>
+      <c r="P126" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q126" s="5">
+        <v>5</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T126" s="5">
+        <v>5</v>
+      </c>
+      <c r="V126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W126" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y126" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z126" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC126" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF126" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH126" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI126" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK126" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>32015</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" s="6">
+        <v>62</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="6">
+        <v>26</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" s="6">
+        <v>15</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="6">
+        <v>7</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N127" s="6">
+        <v>6</v>
+      </c>
+      <c r="P127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q127" s="5">
+        <v>5</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T127" s="5">
+        <v>3</v>
+      </c>
+      <c r="V127" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W127" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z127" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC127" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE127" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF127" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH127" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI127" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK127" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>32017</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" s="6">
+        <v>57</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="6">
+        <v>24</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="6">
+        <v>25</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K128" s="6">
+        <v>6</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N128" s="6">
+        <v>2</v>
+      </c>
+      <c r="P128" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q128" s="5">
+        <v>0</v>
+      </c>
+      <c r="S128" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T128" s="5">
+        <v>0</v>
+      </c>
+      <c r="V128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W128" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z128" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC128" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF128" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI128" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK128" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>32019</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="6">
+        <v>171</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="6">
+        <v>58</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="6">
+        <v>43</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="6">
+        <v>20</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N129" s="6">
+        <v>19</v>
+      </c>
+      <c r="P129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q129" s="5">
+        <v>17</v>
+      </c>
+      <c r="S129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T129" s="5">
+        <v>11</v>
+      </c>
+      <c r="V129" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W129" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z129" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC129" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF129" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI129" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL129" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>32021</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="6">
+        <v>56</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="6">
+        <v>13</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" s="6">
+        <v>16</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="6">
+        <v>15</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N130" s="6">
+        <v>5</v>
+      </c>
+      <c r="P130" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q130" s="5">
+        <v>4</v>
+      </c>
+      <c r="S130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T130" s="5">
+        <v>3</v>
+      </c>
+      <c r="V130" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W130" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z130" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC130" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF130" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH130" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI130" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK130" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>32023</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="6">
+        <v>164</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" s="6">
+        <v>41</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="6">
+        <v>47</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K131" s="6">
+        <v>38</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N131" s="6">
+        <v>26</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q131" s="5">
+        <v>7</v>
+      </c>
+      <c r="S131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T131" s="5">
+        <v>5</v>
+      </c>
+      <c r="V131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W131" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z131" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC131" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF131" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH131" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI131" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK131" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>32027</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" s="6">
+        <v>69</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="6">
+        <v>9</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="6">
+        <v>21</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K132" s="6">
+        <v>13</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" s="6">
+        <v>12</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q132" s="5">
+        <v>9</v>
+      </c>
+      <c r="S132" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T132" s="5">
+        <v>5</v>
+      </c>
+      <c r="V132" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W132" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z132" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC132" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF132" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH132" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI132" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>32029</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C133" s="6">
+        <v>74</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="6">
+        <v>25</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="6">
+        <v>15</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K133" s="6">
+        <v>11</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N133" s="6">
+        <v>9</v>
+      </c>
+      <c r="P133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q133" s="5">
+        <v>7</v>
+      </c>
+      <c r="S133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T133" s="5">
+        <v>7</v>
+      </c>
+      <c r="V133" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W133" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z133" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC133" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF133" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH133" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI133" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK133" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:38" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <v>32031</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" s="6">
+        <v>2170</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="6">
+        <v>959</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="6">
+        <v>390</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="6">
+        <v>354</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N134" s="6">
+        <v>220</v>
+      </c>
+      <c r="P134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q134" s="5">
+        <v>165</v>
+      </c>
+      <c r="S134" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T134" s="5">
+        <v>81</v>
+      </c>
+      <c r="V134" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W134" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z134" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC134" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF134" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI134" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK134" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:38" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <v>32033</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C135" s="6">
+        <v>76</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" s="6">
+        <v>30</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="6">
+        <v>29</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="6">
+        <v>5</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N135" s="6">
+        <v>5</v>
+      </c>
+      <c r="P135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q135" s="5">
+        <v>4</v>
+      </c>
+      <c r="S135" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T135" s="5">
+        <v>3</v>
+      </c>
+      <c r="V135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W135" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z135" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC135" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF135" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH135" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI135" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK135" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL135" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23697,9 +26407,6 @@
       <sortCondition ref="A4"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A5:AS106">
-    <sortCondition ref="A5"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
